--- a/starter-files/recommended_trades.xlsx
+++ b/starter-files/recommended_trades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="507">
   <si>
     <t>Ticker</t>
   </si>
@@ -1930,13 +1930,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>118.33</v>
+        <v>127.62</v>
       </c>
       <c r="C2" s="2">
-        <v>34951843840</v>
+        <v>37695885312</v>
       </c>
       <c r="D2" s="3">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1944,13 +1944,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>18.34</v>
+        <v>17.42</v>
       </c>
       <c r="C3" s="2">
-        <v>11973507072</v>
+        <v>11381565440</v>
       </c>
       <c r="D3" s="3">
-        <v>1084</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1958,13 +1958,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>69.645</v>
+        <v>70.73</v>
       </c>
       <c r="C4" s="2">
-        <v>4139970304</v>
+        <v>4204467200</v>
       </c>
       <c r="D4" s="3">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1972,10 +1972,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>192.61</v>
+        <v>191.94</v>
       </c>
       <c r="C5" s="2">
-        <v>3029504884736</v>
+        <v>3018966695936</v>
       </c>
       <c r="D5" s="3">
         <v>103</v>
@@ -1986,13 +1986,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>135.14</v>
+        <v>143.74</v>
       </c>
       <c r="C6" s="2">
-        <v>238426161152</v>
+        <v>253599055872</v>
       </c>
       <c r="D6" s="3">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2000,10 +2000,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>191.99</v>
+        <v>192.59</v>
       </c>
       <c r="C7" s="2">
-        <v>38831706112</v>
+        <v>39003906048</v>
       </c>
       <c r="D7" s="3">
         <v>103</v>
@@ -2014,13 +2014,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>107.02</v>
+        <v>114.29</v>
       </c>
       <c r="C8" s="2">
-        <v>186102431744</v>
+        <v>198744604672</v>
       </c>
       <c r="D8" s="3">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2028,13 +2028,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>78.92</v>
+        <v>82.27</v>
       </c>
       <c r="C9" s="2">
-        <v>29391622144</v>
+        <v>30726608896</v>
       </c>
       <c r="D9" s="3">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2042,13 +2042,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>316.865</v>
+        <v>314.8</v>
       </c>
       <c r="C10" s="2">
-        <v>200037810176</v>
+        <v>198734168064</v>
       </c>
       <c r="D10" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2056,10 +2056,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>515.84</v>
+        <v>520.23</v>
       </c>
       <c r="C11" s="2">
-        <v>235119886336</v>
+        <v>241768038400</v>
       </c>
       <c r="D11" s="3">
         <v>38</v>
@@ -2070,10 +2070,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>192.05</v>
+        <v>191.96</v>
       </c>
       <c r="C12" s="2">
-        <v>96297328640</v>
+        <v>96320921600</v>
       </c>
       <c r="D12" s="3">
         <v>103</v>
@@ -2084,13 +2084,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>78.845</v>
+        <v>82.14</v>
       </c>
       <c r="C13" s="2">
-        <v>42941747200</v>
+        <v>45405429760</v>
       </c>
       <c r="D13" s="3">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2098,13 +2098,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>231.115</v>
+        <v>237.69</v>
       </c>
       <c r="C14" s="2">
-        <v>95478923264</v>
+        <v>98195210240</v>
       </c>
       <c r="D14" s="3">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2112,13 +2112,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>213.31</v>
+        <v>209.9</v>
       </c>
       <c r="C15" s="2">
-        <v>45589893120</v>
+        <v>45597835264</v>
       </c>
       <c r="D15" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2126,13 +2126,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>84.52</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="C16" s="2">
-        <v>22195712000</v>
+        <v>23185747968</v>
       </c>
       <c r="D16" s="3">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2140,13 +2140,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>86.1318</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>44339875840</v>
+        <v>45265571840</v>
       </c>
       <c r="D17" s="3">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2154,13 +2154,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>21.27</v>
+        <v>22.49</v>
       </c>
       <c r="C18" s="2">
-        <v>14236777472</v>
+        <v>15053366272</v>
       </c>
       <c r="D18" s="3">
-        <v>934</v>
+        <v>883</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2168,13 +2168,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>70.005</v>
+        <v>72.41</v>
       </c>
       <c r="C19" s="2">
-        <v>42298908672</v>
+        <v>44100227072</v>
       </c>
       <c r="D19" s="3">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2182,13 +2182,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>58.715</v>
+        <v>59.95</v>
       </c>
       <c r="C20" s="2">
-        <v>42495160320</v>
+        <v>43587186688</v>
       </c>
       <c r="D20" s="3">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2196,13 +2196,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>125.345</v>
+        <v>129.54</v>
       </c>
       <c r="C21" s="2">
-        <v>6662287360</v>
+        <v>6986337792</v>
       </c>
       <c r="D21" s="3">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2210,13 +2210,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>215.97</v>
+        <v>218.61</v>
       </c>
       <c r="C22" s="2">
-        <v>46270709760</v>
+        <v>46836318208</v>
       </c>
       <c r="D22" s="3">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2224,10 +2224,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>92.16500000000001</v>
+        <v>92.38</v>
       </c>
       <c r="C23" s="2">
-        <v>14027697152</v>
+        <v>14264210432</v>
       </c>
       <c r="D23" s="3">
         <v>215</v>
@@ -2238,13 +2238,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>235.385</v>
+        <v>215.99</v>
       </c>
       <c r="C24" s="2">
-        <v>27619133440</v>
+        <v>25343404032</v>
       </c>
       <c r="D24" s="3">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2252,13 +2252,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>364.345</v>
+        <v>337.37</v>
       </c>
       <c r="C25" s="2">
-        <v>27878586368</v>
+        <v>25814540288</v>
       </c>
       <c r="D25" s="3">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2266,13 +2266,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>52.4</v>
+        <v>54.15</v>
       </c>
       <c r="C26" s="2">
-        <v>6702536704</v>
+        <v>7093704192</v>
       </c>
       <c r="D26" s="3">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2280,13 +2280,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>101.8863</v>
+        <v>110.82</v>
       </c>
       <c r="C27" s="2">
-        <v>26781018112</v>
+        <v>29129259008</v>
       </c>
       <c r="D27" s="3">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2294,13 +2294,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>123.58</v>
+        <v>125.19</v>
       </c>
       <c r="C28" s="2">
-        <v>10868453376</v>
+        <v>11010048000</v>
       </c>
       <c r="D28" s="3">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2308,13 +2308,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>142.37</v>
+        <v>136.4</v>
       </c>
       <c r="C29" s="2">
-        <v>119554777088</v>
+        <v>114541486080</v>
       </c>
       <c r="D29" s="3">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2322,13 +2322,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>9.815</v>
+        <v>10.02</v>
       </c>
       <c r="C30" s="2">
-        <v>14442182656</v>
+        <v>14848337920</v>
       </c>
       <c r="D30" s="3">
-        <v>2025</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2336,13 +2336,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>113.37</v>
+        <v>110.95</v>
       </c>
       <c r="C31" s="2">
-        <v>182566518784</v>
+        <v>178669436928</v>
       </c>
       <c r="D31" s="3">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2350,10 +2350,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>157.27</v>
+        <v>157.53</v>
       </c>
       <c r="C32" s="2">
-        <v>36246806528</v>
+        <v>36529790976</v>
       </c>
       <c r="D32" s="3">
         <v>126</v>
@@ -2364,13 +2364,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>227.12</v>
+        <v>234.82</v>
       </c>
       <c r="C33" s="2">
-        <v>121356345344</v>
+        <v>125470670848</v>
       </c>
       <c r="D33" s="3">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2378,13 +2378,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>341.92</v>
+        <v>353.87</v>
       </c>
       <c r="C34" s="2">
-        <v>35996995584</v>
+        <v>37255077888</v>
       </c>
       <c r="D34" s="3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2392,13 +2392,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>189.855</v>
+        <v>184.89</v>
       </c>
       <c r="C35" s="2">
-        <v>88480595968</v>
+        <v>86166691840</v>
       </c>
       <c r="D35" s="3">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2406,13 +2406,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>134.4108</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2">
-        <v>1379108519936</v>
+        <v>1333851979776</v>
       </c>
       <c r="D36" s="3">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2420,13 +2420,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>166.2701</v>
+        <v>171.64</v>
       </c>
       <c r="C37" s="2">
-        <v>51258245120</v>
+        <v>52913696768</v>
       </c>
       <c r="D37" s="3">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2434,13 +2434,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>343.07</v>
+        <v>341.76</v>
       </c>
       <c r="C38" s="2">
-        <v>29730891776</v>
+        <v>29617364992</v>
       </c>
       <c r="D38" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2448,10 +2448,10 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>338.69</v>
+        <v>340.9</v>
       </c>
       <c r="C39" s="2">
-        <v>69176074240</v>
+        <v>69627461632</v>
       </c>
       <c r="D39" s="3">
         <v>58</v>
@@ -2462,13 +2462,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>74.47</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="C40" s="2">
-        <v>11203416064</v>
+        <v>11432087552</v>
       </c>
       <c r="D40" s="3">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2476,13 +2476,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>36.44</v>
+        <v>38.64</v>
       </c>
       <c r="C41" s="2">
-        <v>11245347840</v>
+        <v>11924265984</v>
       </c>
       <c r="D41" s="3">
-        <v>545</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2490,13 +2490,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>297.76</v>
+        <v>302.74</v>
       </c>
       <c r="C42" s="2">
-        <v>66139348992</v>
+        <v>67245518848</v>
       </c>
       <c r="D42" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2504,13 +2504,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>84.45999999999999</v>
+        <v>83.62</v>
       </c>
       <c r="C43" s="2">
-        <v>50280640512</v>
+        <v>49780576256</v>
       </c>
       <c r="D43" s="3">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2518,10 +2518,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>109.46</v>
+        <v>109.24</v>
       </c>
       <c r="C44" s="2">
-        <v>29609584640</v>
+        <v>29550073856</v>
       </c>
       <c r="D44" s="3">
         <v>181</v>
@@ -2532,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>118.965</v>
+        <v>123.23</v>
       </c>
       <c r="C45" s="2">
-        <v>20582608896</v>
+        <v>21320515584</v>
       </c>
       <c r="D45" s="3">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2546,13 +2546,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>118.65</v>
+        <v>123.28</v>
       </c>
       <c r="C46" s="2">
-        <v>17143384064</v>
+        <v>17812359168</v>
       </c>
       <c r="D46" s="3">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2560,13 +2560,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>92.70999999999999</v>
+        <v>91.91</v>
       </c>
       <c r="C47" s="2">
-        <v>72884797440</v>
+        <v>72255873024</v>
       </c>
       <c r="D47" s="3">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2574,10 +2574,10 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>197.53</v>
+        <v>197.37</v>
       </c>
       <c r="C48" s="2">
-        <v>28049063936</v>
+        <v>28026343424</v>
       </c>
       <c r="D48" s="3">
         <v>100</v>
@@ -2588,10 +2588,10 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>893.86</v>
+        <v>896.75</v>
       </c>
       <c r="C49" s="2">
-        <v>368882614272</v>
+        <v>370075271168</v>
       </c>
       <c r="D49" s="3">
         <v>22</v>
@@ -2602,13 +2602,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>177.34</v>
+        <v>178.37</v>
       </c>
       <c r="C50" s="2">
-        <v>14383869952</v>
+        <v>14467411968</v>
       </c>
       <c r="D50" s="3">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2616,13 +2616,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>144.9</v>
+        <v>148.82</v>
       </c>
       <c r="C51" s="2">
-        <v>28203915264</v>
+        <v>28966922240</v>
       </c>
       <c r="D51" s="3">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2630,13 +2630,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>193.44</v>
+        <v>179.96</v>
       </c>
       <c r="C52" s="2">
-        <v>14292371456</v>
+        <v>13296398336</v>
       </c>
       <c r="D52" s="3">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2644,13 +2644,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>174.5</v>
+        <v>170.22</v>
       </c>
       <c r="C53" s="2">
-        <v>129695555584</v>
+        <v>126514487296</v>
       </c>
       <c r="D53" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2658,13 +2658,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>2561.95</v>
+        <v>2457.93</v>
       </c>
       <c r="C54" s="2">
-        <v>46514761728</v>
+        <v>44626173952</v>
       </c>
       <c r="D54" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2672,10 +2672,10 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>213.75</v>
+        <v>211.8</v>
       </c>
       <c r="C55" s="2">
-        <v>128590716928</v>
+        <v>127417606144</v>
       </c>
       <c r="D55" s="3">
         <v>93</v>
@@ -2686,13 +2686,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>29.3799</v>
+        <v>31.98</v>
       </c>
       <c r="C56" s="2">
-        <v>234132832256</v>
+        <v>254354849792</v>
       </c>
       <c r="D56" s="3">
-        <v>676</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2700,13 +2700,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>55.65</v>
+        <v>57.59</v>
       </c>
       <c r="C57" s="2">
-        <v>17504595968</v>
+        <v>18114820096</v>
       </c>
       <c r="D57" s="3">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2714,13 +2714,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>46.5</v>
+        <v>48.56</v>
       </c>
       <c r="C58" s="2">
-        <v>23522023424</v>
+        <v>24564076544</v>
       </c>
       <c r="D58" s="3">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2728,13 +2728,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>35.14</v>
+        <v>35.66</v>
       </c>
       <c r="C59" s="2">
-        <v>8043967488</v>
+        <v>8163001856</v>
       </c>
       <c r="D59" s="3">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2742,13 +2742,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>80.48999999999999</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="C60" s="2">
-        <v>17563803648</v>
+        <v>18059143168</v>
       </c>
       <c r="D60" s="3">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2756,13 +2756,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>257.5005</v>
+        <v>264.84</v>
       </c>
       <c r="C61" s="2">
-        <v>73134006272</v>
+        <v>75218534400</v>
       </c>
       <c r="D61" s="3">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2770,13 +2770,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>28.515</v>
+        <v>29.32</v>
       </c>
       <c r="C62" s="2">
-        <v>14282107904</v>
+        <v>14685302784</v>
       </c>
       <c r="D62" s="3">
-        <v>697</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2784,13 +2784,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>67.08</v>
+        <v>68.62</v>
       </c>
       <c r="C63" s="2">
-        <v>32354158592</v>
+        <v>33126787072</v>
       </c>
       <c r="D63" s="3">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2798,13 +2798,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>100.82</v>
+        <v>104.84</v>
       </c>
       <c r="C64" s="2">
-        <v>15185306624</v>
+        <v>15790790656</v>
       </c>
       <c r="D64" s="3">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2812,10 +2812,10 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>278.595</v>
+        <v>276.74</v>
       </c>
       <c r="C65" s="2">
-        <v>40324399104</v>
+        <v>40055898112</v>
       </c>
       <c r="D65" s="3">
         <v>71</v>
@@ -2826,13 +2826,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>397.76</v>
+        <v>414.18</v>
       </c>
       <c r="C66" s="2">
-        <v>11428321280</v>
+        <v>11978789888</v>
       </c>
       <c r="D66" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2840,13 +2840,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>43.49</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2">
-        <v>34319439872</v>
+        <v>36485955584</v>
       </c>
       <c r="D67" s="3">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2854,10 +2854,10 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>2888.26</v>
+        <v>2923.24</v>
       </c>
       <c r="C68" s="2">
-        <v>106674126848</v>
+        <v>107966070784</v>
       </c>
       <c r="D68" s="3">
         <v>6</v>
@@ -2868,13 +2868,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>34.615</v>
+        <v>35.43</v>
       </c>
       <c r="C69" s="2">
-        <v>35285147648</v>
+        <v>36019908608</v>
       </c>
       <c r="D69" s="3">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2882,13 +2882,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>730.165</v>
+        <v>751.21</v>
       </c>
       <c r="C70" s="2">
-        <v>109351706624</v>
+        <v>113936023552</v>
       </c>
       <c r="D70" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2896,13 +2896,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>61.68</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="C71" s="2">
-        <v>129580433408</v>
+        <v>135882981376</v>
       </c>
       <c r="D71" s="3">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2910,13 +2910,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>167.87</v>
+        <v>169.83</v>
       </c>
       <c r="C72" s="2">
-        <v>19805470720</v>
+        <v>20036712448</v>
       </c>
       <c r="D72" s="3">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2924,10 +2924,10 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>343.185</v>
+        <v>345.76</v>
       </c>
       <c r="C73" s="2">
-        <v>749687603200</v>
+        <v>755578961920</v>
       </c>
       <c r="D73" s="3">
         <v>57</v>
@@ -2938,13 +2938,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>69.61</v>
+        <v>71.2</v>
       </c>
       <c r="C74" s="2">
-        <v>19744458752</v>
+        <v>20195452928</v>
       </c>
       <c r="D74" s="3">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2952,13 +2952,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>52.765</v>
+        <v>53.16</v>
       </c>
       <c r="C75" s="2">
-        <v>75860238336</v>
+        <v>76428132352</v>
       </c>
       <c r="D75" s="3">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2966,13 +2966,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>45.32</v>
+        <v>46.14</v>
       </c>
       <c r="C76" s="2">
-        <v>10621784064</v>
+        <v>10873536512</v>
       </c>
       <c r="D76" s="3">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2980,13 +2980,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>61.135</v>
+        <v>63.39</v>
       </c>
       <c r="C77" s="2">
-        <v>9588108288</v>
+        <v>9941771264</v>
       </c>
       <c r="D77" s="3">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2994,13 +2994,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>46.0257</v>
+        <v>47.05</v>
       </c>
       <c r="C78" s="2">
-        <v>89600532480</v>
+        <v>90604183552</v>
       </c>
       <c r="D78" s="3">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3008,13 +3008,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>32.565</v>
+        <v>33.29</v>
       </c>
       <c r="C79" s="2">
-        <v>15535458304</v>
+        <v>15881327616</v>
       </c>
       <c r="D79" s="3">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3022,13 +3022,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>93.68000000000001</v>
+        <v>93.19</v>
       </c>
       <c r="C80" s="2">
-        <v>23850928128</v>
+        <v>23726174208</v>
       </c>
       <c r="D80" s="3">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3036,13 +3036,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>54.16</v>
+        <v>53.75</v>
       </c>
       <c r="C81" s="2">
-        <v>45214826496</v>
+        <v>45431812096</v>
       </c>
       <c r="D81" s="3">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3050,10 +3050,10 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>255.35</v>
+        <v>257.65</v>
       </c>
       <c r="C82" s="2">
-        <v>131848953856</v>
+        <v>133036539904</v>
       </c>
       <c r="D82" s="3">
         <v>77</v>
@@ -3064,13 +3064,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>191.37</v>
+        <v>199.81</v>
       </c>
       <c r="C83" s="2">
-        <v>79260475392</v>
+        <v>82756108288</v>
       </c>
       <c r="D83" s="3">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3078,13 +3078,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>141.74</v>
+        <v>143.49</v>
       </c>
       <c r="C84" s="2">
-        <v>14964059136</v>
+        <v>15148814336</v>
       </c>
       <c r="D84" s="3">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3092,13 +3092,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>86.91500000000001</v>
+        <v>87.72</v>
       </c>
       <c r="C85" s="2">
-        <v>27015962624</v>
+        <v>27266183168</v>
       </c>
       <c r="D85" s="3">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3106,13 +3106,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>113.61</v>
+        <v>107.28</v>
       </c>
       <c r="C86" s="2">
-        <v>49269362688</v>
+        <v>46765391872</v>
       </c>
       <c r="D86" s="3">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3120,13 +3120,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>17.83</v>
+        <v>17.88</v>
       </c>
       <c r="C87" s="2">
-        <v>23287228416</v>
+        <v>23352530944</v>
       </c>
       <c r="D87" s="3">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3134,13 +3134,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>68.435</v>
+        <v>68.66</v>
       </c>
       <c r="C88" s="2">
-        <v>10609546240</v>
+        <v>10834274304</v>
       </c>
       <c r="D88" s="3">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3148,13 +3148,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>240.97</v>
+        <v>242.86</v>
       </c>
       <c r="C89" s="2">
-        <v>65708662784</v>
+        <v>66224037888</v>
       </c>
       <c r="D89" s="3">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3162,13 +3162,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>186.5</v>
+        <v>188.52</v>
       </c>
       <c r="C90" s="2">
-        <v>25137776640</v>
+        <v>25410048000</v>
       </c>
       <c r="D90" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3176,13 +3176,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>119.06</v>
+        <v>121.26</v>
       </c>
       <c r="C91" s="2">
-        <v>12952299520</v>
+        <v>13473926144</v>
       </c>
       <c r="D91" s="3">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3190,13 +3190,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>95.68000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C92" s="2">
-        <v>31039645696</v>
+        <v>31338102784</v>
       </c>
       <c r="D92" s="3">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3204,13 +3204,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>73.88</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="C93" s="2">
-        <v>14406599680</v>
+        <v>15412800512</v>
       </c>
       <c r="D93" s="3">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3218,13 +3218,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>27.88</v>
+        <v>31.05</v>
       </c>
       <c r="C94" s="2">
-        <v>13493584896</v>
+        <v>15027826688</v>
       </c>
       <c r="D94" s="3">
-        <v>713</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3232,13 +3232,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>98.73999999999999</v>
+        <v>98.13</v>
       </c>
       <c r="C95" s="2">
-        <v>24118626304</v>
+        <v>23969626112</v>
       </c>
       <c r="D95" s="3">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3246,13 +3246,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>94.27500000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C96" s="2">
-        <v>10977287168</v>
+        <v>11480885248</v>
       </c>
       <c r="D96" s="3">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3260,13 +3260,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>372.72</v>
+        <v>394.47</v>
       </c>
       <c r="C97" s="2">
-        <v>56122318848</v>
+        <v>59397324800</v>
       </c>
       <c r="D97" s="3">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3274,13 +3274,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>283.23</v>
+        <v>293.77</v>
       </c>
       <c r="C98" s="2">
-        <v>83799826432</v>
+        <v>86918316032</v>
       </c>
       <c r="D98" s="3">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3288,13 +3288,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>99.06</v>
+        <v>102.56</v>
       </c>
       <c r="C99" s="2">
-        <v>15573518336</v>
+        <v>16123763712</v>
       </c>
       <c r="D99" s="3">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3302,13 +3302,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>76.11</v>
+        <v>77.19</v>
       </c>
       <c r="C100" s="2">
-        <v>63138422784</v>
+        <v>64034357248</v>
       </c>
       <c r="D100" s="3">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3316,13 +3316,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>154.5</v>
+        <v>155.78</v>
       </c>
       <c r="C101" s="2">
-        <v>19099908096</v>
+        <v>19258146816</v>
       </c>
       <c r="D101" s="3">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3330,13 +3330,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>47.49</v>
+        <v>50.75</v>
       </c>
       <c r="C102" s="2">
-        <v>6253008384</v>
+        <v>6682252288</v>
       </c>
       <c r="D102" s="3">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3344,13 +3344,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>41.87</v>
+        <v>42.89</v>
       </c>
       <c r="C103" s="2">
-        <v>174548910080</v>
+        <v>178801115136</v>
       </c>
       <c r="D103" s="3">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3358,13 +3358,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>186.06</v>
+        <v>189.26</v>
       </c>
       <c r="C104" s="2">
-        <v>66929131520</v>
+        <v>68080230400</v>
       </c>
       <c r="D104" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3372,10 +3372,10 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>2100.305</v>
+        <v>2098.87</v>
       </c>
       <c r="C105" s="2">
-        <v>57946992640</v>
+        <v>57907404800</v>
       </c>
       <c r="D105" s="3">
         <v>9</v>
@@ -3386,13 +3386,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>253.695</v>
+        <v>258.75</v>
       </c>
       <c r="C106" s="2">
-        <v>35913572352</v>
+        <v>36629168128</v>
       </c>
       <c r="D106" s="3">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3400,13 +3400,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>60.205</v>
+        <v>62.89</v>
       </c>
       <c r="C107" s="2">
-        <v>17559150592</v>
+        <v>18342246400</v>
       </c>
       <c r="D107" s="3">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3414,13 +3414,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>65.76000000000001</v>
+        <v>70.63</v>
       </c>
       <c r="C108" s="2">
-        <v>36087050240</v>
+        <v>38759555072</v>
       </c>
       <c r="D108" s="3">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3428,13 +3428,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>29.845</v>
+        <v>30.91</v>
       </c>
       <c r="C109" s="2">
-        <v>18833059840</v>
+        <v>19505106944</v>
       </c>
       <c r="D109" s="3">
-        <v>666</v>
+        <v>643</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3442,13 +3442,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>112.23</v>
+        <v>115.57</v>
       </c>
       <c r="C110" s="2">
-        <v>42850091008</v>
+        <v>44125319168</v>
       </c>
       <c r="D110" s="3">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3456,13 +3456,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>396.35</v>
+        <v>387.61</v>
       </c>
       <c r="C111" s="2">
-        <v>19622457344</v>
+        <v>19189755904</v>
       </c>
       <c r="D111" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3470,13 +3470,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>107.35</v>
+        <v>112.89</v>
       </c>
       <c r="C112" s="2">
-        <v>129899945984</v>
+        <v>136603672576</v>
       </c>
       <c r="D112" s="3">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3484,13 +3484,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>548.65</v>
+        <v>557.86</v>
       </c>
       <c r="C113" s="2">
-        <v>243133153280</v>
+        <v>247214538752</v>
       </c>
       <c r="D113" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3498,13 +3498,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>45.06</v>
+        <v>46.33</v>
       </c>
       <c r="C114" s="2">
-        <v>13432026112</v>
+        <v>13810603008</v>
       </c>
       <c r="D114" s="3">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3512,13 +3512,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>93.88</v>
+        <v>91.14</v>
       </c>
       <c r="C115" s="2">
-        <v>44822065152</v>
+        <v>43513880576</v>
       </c>
       <c r="D115" s="3">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3526,13 +3526,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>111.39</v>
+        <v>112.9</v>
       </c>
       <c r="C116" s="2">
-        <v>11892218880</v>
+        <v>12053430272</v>
       </c>
       <c r="D116" s="3">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3540,13 +3540,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>204.62</v>
+        <v>206.38</v>
       </c>
       <c r="C117" s="2">
-        <v>10473044992</v>
+        <v>10563127296</v>
       </c>
       <c r="D117" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3554,13 +3554,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>228.615</v>
+        <v>228.06</v>
       </c>
       <c r="C118" s="2">
-        <v>222671011840</v>
+        <v>222130438144</v>
       </c>
       <c r="D118" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3568,13 +3568,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>50.585</v>
+        <v>52.63</v>
       </c>
       <c r="C119" s="2">
-        <v>206136901632</v>
+        <v>214470410240</v>
       </c>
       <c r="D119" s="3">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3582,13 +3582,13 @@
         <v>122</v>
       </c>
       <c r="B120" s="2">
-        <v>89.66</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="C120" s="2">
-        <v>36629610496</v>
+        <v>37046317056</v>
       </c>
       <c r="D120" s="3">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3596,13 +3596,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>33.295</v>
+        <v>32.46</v>
       </c>
       <c r="C121" s="2">
-        <v>67690393600</v>
+        <v>65992802304</v>
       </c>
       <c r="D121" s="3">
-        <v>597</v>
+        <v>612</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3610,10 +3610,10 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>498.61</v>
+        <v>507.42</v>
       </c>
       <c r="C122" s="2">
-        <v>50724589568</v>
+        <v>51620851712</v>
       </c>
       <c r="D122" s="3">
         <v>39</v>
@@ -3624,13 +3624,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>45.875</v>
+        <v>47.59</v>
       </c>
       <c r="C123" s="2">
-        <v>8269978112</v>
+        <v>8579144704</v>
       </c>
       <c r="D123" s="3">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3638,13 +3638,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>25.53</v>
+        <v>26.71</v>
       </c>
       <c r="C124" s="2">
-        <v>19337775104</v>
+        <v>20231569408</v>
       </c>
       <c r="D124" s="3">
-        <v>778</v>
+        <v>744</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3652,13 +3652,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>68.52</v>
+        <v>66.81</v>
       </c>
       <c r="C125" s="2">
-        <v>34772320256</v>
+        <v>33904537600</v>
       </c>
       <c r="D125" s="3">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3666,13 +3666,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>54.645</v>
+        <v>56.35</v>
       </c>
       <c r="C126" s="2">
-        <v>38845657088</v>
+        <v>40057692160</v>
       </c>
       <c r="D126" s="3">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3680,13 +3680,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>70.66</v>
+        <v>75.05</v>
       </c>
       <c r="C127" s="2">
-        <v>90588241920</v>
+        <v>96216350720</v>
       </c>
       <c r="D127" s="3">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3694,13 +3694,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>153.735</v>
+        <v>158.69</v>
       </c>
       <c r="C128" s="2">
-        <v>287399903232</v>
+        <v>296663023616</v>
       </c>
       <c r="D128" s="3">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3708,13 +3708,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>53.0125</v>
+        <v>57.73</v>
       </c>
       <c r="C129" s="2">
-        <v>11408501760</v>
+        <v>12423727104</v>
       </c>
       <c r="D129" s="3">
-        <v>375</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3722,13 +3722,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>52.1157</v>
+        <v>53.78</v>
       </c>
       <c r="C130" s="2">
-        <v>43565649920</v>
+        <v>44956905472</v>
       </c>
       <c r="D130" s="3">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3736,13 +3736,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>47.02</v>
+        <v>48.55</v>
       </c>
       <c r="C131" s="2">
-        <v>30253514752</v>
+        <v>31237943296</v>
       </c>
       <c r="D131" s="3">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3750,13 +3750,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>72.54000000000001</v>
+        <v>75.13</v>
       </c>
       <c r="C132" s="2">
-        <v>33297092608</v>
+        <v>34485944320</v>
       </c>
       <c r="D132" s="3">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3764,13 +3764,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>420</v>
+        <v>436.93</v>
       </c>
       <c r="C133" s="2">
-        <v>123140636672</v>
+        <v>128104382464</v>
       </c>
       <c r="D133" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3778,13 +3778,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>119.13</v>
+        <v>105.11</v>
       </c>
       <c r="C134" s="2">
-        <v>30252587008</v>
+        <v>26692263936</v>
       </c>
       <c r="D134" s="3">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3792,13 +3792,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>162.375</v>
+        <v>167.09</v>
       </c>
       <c r="C135" s="2">
-        <v>35615494144</v>
+        <v>36649684992</v>
       </c>
       <c r="D135" s="3">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3806,13 +3806,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>139.35</v>
+        <v>144.37</v>
       </c>
       <c r="C136" s="2">
-        <v>15608455168</v>
+        <v>16170738688</v>
       </c>
       <c r="D136" s="3">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3820,10 +3820,10 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>127.71</v>
+        <v>127.58</v>
       </c>
       <c r="C137" s="2">
-        <v>43558178816</v>
+        <v>43513839616</v>
       </c>
       <c r="D137" s="3">
         <v>155</v>
@@ -3834,13 +3834,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>235.075</v>
+        <v>255.88</v>
       </c>
       <c r="C138" s="2">
-        <v>173461602304</v>
+        <v>188813606912</v>
       </c>
       <c r="D138" s="3">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3848,13 +3848,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>87.42</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="C139" s="2">
-        <v>159742558208</v>
+        <v>159304007680</v>
       </c>
       <c r="D139" s="3">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3862,13 +3862,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>117.725</v>
+        <v>120.15</v>
       </c>
       <c r="C140" s="2">
-        <v>35059564544</v>
+        <v>35509374976</v>
       </c>
       <c r="D140" s="3">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3876,13 +3876,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>148.27</v>
+        <v>151.57</v>
       </c>
       <c r="C141" s="2">
-        <v>32676483072</v>
+        <v>33403754496</v>
       </c>
       <c r="D141" s="3">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3890,13 +3890,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>148.89</v>
+        <v>152.12</v>
       </c>
       <c r="C142" s="2">
-        <v>20822417408</v>
+        <v>21274134528</v>
       </c>
       <c r="D142" s="3">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3904,13 +3904,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>52.515</v>
+        <v>53.05</v>
       </c>
       <c r="C143" s="2">
-        <v>37144645632</v>
+        <v>37523058688</v>
       </c>
       <c r="D143" s="3">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3918,10 +3918,10 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>386.605</v>
+        <v>385.44</v>
       </c>
       <c r="C144" s="2">
-        <v>13662234624</v>
+        <v>13621064704</v>
       </c>
       <c r="D144" s="3">
         <v>51</v>
@@ -3932,13 +3932,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>169.1675</v>
+        <v>170.37</v>
       </c>
       <c r="C145" s="2">
-        <v>20457256960</v>
+        <v>20626866176</v>
       </c>
       <c r="D145" s="3">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3946,13 +3946,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>112.015</v>
+        <v>115.12</v>
       </c>
       <c r="C146" s="2">
-        <v>23087298560</v>
+        <v>23727267840</v>
       </c>
       <c r="D146" s="3">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3960,13 +3960,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>92.523</v>
+        <v>94.78</v>
       </c>
       <c r="C147" s="2">
-        <v>71303036928</v>
+        <v>73042395136</v>
       </c>
       <c r="D147" s="3">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3974,13 +3974,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>103.885</v>
+        <v>102.78</v>
       </c>
       <c r="C148" s="2">
-        <v>9422369792</v>
+        <v>9322145792</v>
       </c>
       <c r="D148" s="3">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3988,13 +3988,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>48.785</v>
+        <v>52.26</v>
       </c>
       <c r="C149" s="2">
-        <v>31305332736</v>
+        <v>33535240192</v>
       </c>
       <c r="D149" s="3">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4002,13 +4002,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>27.79</v>
+        <v>27.91</v>
       </c>
       <c r="C150" s="2">
-        <v>5855881216</v>
+        <v>5881167360</v>
       </c>
       <c r="D150" s="3">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4016,13 +4016,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>137</v>
+        <v>130.6</v>
       </c>
       <c r="C151" s="2">
-        <v>53106130944</v>
+        <v>50625265664</v>
       </c>
       <c r="D151" s="3">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4030,13 +4030,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>139.68</v>
+        <v>137.06</v>
       </c>
       <c r="C152" s="2">
-        <v>38009298944</v>
+        <v>37296353280</v>
       </c>
       <c r="D152" s="3">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4044,13 +4044,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>46.455</v>
+        <v>48.34</v>
       </c>
       <c r="C153" s="2">
-        <v>24841207808</v>
+        <v>25849186304</v>
       </c>
       <c r="D153" s="3">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4058,13 +4058,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>187.355</v>
+        <v>189.17</v>
       </c>
       <c r="C154" s="2">
-        <v>53343899648</v>
+        <v>53860671488</v>
       </c>
       <c r="D154" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4072,13 +4072,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>92.64</v>
+        <v>97.13</v>
       </c>
       <c r="C155" s="2">
-        <v>32103464960</v>
+        <v>33659428864</v>
       </c>
       <c r="D155" s="3">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4086,13 +4086,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>237.855</v>
+        <v>212.35</v>
       </c>
       <c r="C156" s="2">
-        <v>29171488768</v>
+        <v>26055346176</v>
       </c>
       <c r="D156" s="3">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4100,13 +4100,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>357.58</v>
+        <v>366.96</v>
       </c>
       <c r="C157" s="2">
-        <v>15524406272</v>
+        <v>15931641856</v>
       </c>
       <c r="D157" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4114,13 +4114,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>69.985</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C158" s="2">
-        <v>26803066880</v>
+        <v>27727970304</v>
       </c>
       <c r="D158" s="3">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4128,13 +4128,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>191.8</v>
+        <v>179.66</v>
       </c>
       <c r="C159" s="2">
-        <v>68551811072</v>
+        <v>64212819968</v>
       </c>
       <c r="D159" s="3">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4142,13 +4142,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>436.25</v>
+        <v>475.93</v>
       </c>
       <c r="C160" s="2">
-        <v>103415676928</v>
+        <v>112822059008</v>
       </c>
       <c r="D160" s="3">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4156,13 +4156,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>86.03</v>
+        <v>87.23</v>
       </c>
       <c r="C161" s="2">
-        <v>10250646528</v>
+        <v>10393629696</v>
       </c>
       <c r="D161" s="3">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4170,13 +4170,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>91.76000000000001</v>
+        <v>91.23</v>
       </c>
       <c r="C162" s="2">
-        <v>52440842240</v>
+        <v>52137951232</v>
       </c>
       <c r="D162" s="3">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4184,13 +4184,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>180.1</v>
+        <v>177.48</v>
       </c>
       <c r="C163" s="2">
-        <v>24681625600</v>
+        <v>24322568192</v>
       </c>
       <c r="D163" s="3">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4198,13 +4198,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>119.09</v>
+        <v>124.61</v>
       </c>
       <c r="C164" s="2">
-        <v>69650857984</v>
+        <v>72879284224</v>
       </c>
       <c r="D164" s="3">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4212,13 +4212,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>242.68</v>
+        <v>237.46</v>
       </c>
       <c r="C165" s="2">
-        <v>14052506624</v>
+        <v>13750240256</v>
       </c>
       <c r="D165" s="3">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4226,10 +4226,10 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>806.375</v>
+        <v>807.12</v>
       </c>
       <c r="C166" s="2">
-        <v>75414847488</v>
+        <v>75484520448</v>
       </c>
       <c r="D166" s="3">
         <v>24</v>
@@ -4240,13 +4240,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>68.66</v>
+        <v>69.06</v>
       </c>
       <c r="C167" s="2">
-        <v>26015619072</v>
+        <v>26167177216</v>
       </c>
       <c r="D167" s="3">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4254,13 +4254,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>38.18</v>
+        <v>39.9</v>
       </c>
       <c r="C168" s="2">
-        <v>13807529984</v>
+        <v>14429556736</v>
       </c>
       <c r="D168" s="3">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4268,13 +4268,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>71.95</v>
+        <v>74.31</v>
       </c>
       <c r="C169" s="2">
-        <v>25099180032</v>
+        <v>25922447360</v>
       </c>
       <c r="D169" s="3">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4282,10 +4282,10 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>244.47</v>
+        <v>245.14</v>
       </c>
       <c r="C170" s="2">
-        <v>16243197952</v>
+        <v>16287714304</v>
       </c>
       <c r="D170" s="3">
         <v>81</v>
@@ -4296,13 +4296,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>204.065</v>
+        <v>207.69</v>
       </c>
       <c r="C171" s="2">
-        <v>81340309504</v>
+        <v>82785239040</v>
       </c>
       <c r="D171" s="3">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4310,13 +4310,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>98.99250000000001</v>
+        <v>103.99</v>
       </c>
       <c r="C172" s="2">
-        <v>20931667968</v>
+        <v>21988374528</v>
       </c>
       <c r="D172" s="3">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4324,13 +4324,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>91.37</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="C173" s="2">
-        <v>11270672384</v>
+        <v>11933072384</v>
       </c>
       <c r="D173" s="3">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4338,13 +4338,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>59.35</v>
+        <v>61.56</v>
       </c>
       <c r="C174" s="2">
-        <v>13631566848</v>
+        <v>14139162624</v>
       </c>
       <c r="D174" s="3">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4352,10 +4352,10 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>92.78</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="C175" s="2">
-        <v>56244903936</v>
+        <v>56117600256</v>
       </c>
       <c r="D175" s="3">
         <v>214</v>
@@ -4366,13 +4366,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>41.8925</v>
+        <v>42.55</v>
       </c>
       <c r="C176" s="2">
-        <v>41664983040</v>
+        <v>42318909440</v>
       </c>
       <c r="D176" s="3">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4380,13 +4380,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>120.535</v>
+        <v>124.75</v>
       </c>
       <c r="C177" s="2">
-        <v>18416783360</v>
+        <v>19060801536</v>
       </c>
       <c r="D177" s="3">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4394,13 +4394,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>119.315</v>
+        <v>119</v>
       </c>
       <c r="C178" s="2">
-        <v>17673533440</v>
+        <v>17606406144</v>
       </c>
       <c r="D178" s="3">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4408,13 +4408,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>157.035</v>
+        <v>146.07</v>
       </c>
       <c r="C179" s="2">
-        <v>22340427776</v>
+        <v>31905050624</v>
       </c>
       <c r="D179" s="3">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4422,13 +4422,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>14.38</v>
+        <v>13.93</v>
       </c>
       <c r="C180" s="2">
-        <v>57531072512</v>
+        <v>55730728960</v>
       </c>
       <c r="D180" s="3">
-        <v>1382</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4436,13 +4436,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>136.28</v>
+        <v>141.24</v>
       </c>
       <c r="C181" s="2">
-        <v>25361571840</v>
+        <v>25577717760</v>
       </c>
       <c r="D181" s="3">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4450,13 +4450,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>57.75</v>
+        <v>58.14</v>
       </c>
       <c r="C182" s="2">
-        <v>32991940608</v>
+        <v>33217300480</v>
       </c>
       <c r="D182" s="3">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4464,13 +4464,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>40.19</v>
+        <v>40.61</v>
       </c>
       <c r="C183" s="2">
-        <v>57603923968</v>
+        <v>58205908992</v>
       </c>
       <c r="D183" s="3">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4478,13 +4478,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>411.4</v>
+        <v>431.94</v>
       </c>
       <c r="C184" s="2">
-        <v>15764641792</v>
+        <v>16551725056</v>
       </c>
       <c r="D184" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4492,13 +4492,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>255.44</v>
+        <v>259.67</v>
       </c>
       <c r="C185" s="2">
-        <v>64205357056</v>
+        <v>65225732096</v>
       </c>
       <c r="D185" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4506,13 +4506,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>39.5</v>
+        <v>40.09</v>
       </c>
       <c r="C186" s="2">
-        <v>22627061760</v>
+        <v>22965035008</v>
       </c>
       <c r="D186" s="3">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4520,13 +4520,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>147.26</v>
+        <v>148.82</v>
       </c>
       <c r="C187" s="2">
-        <v>8904517632</v>
+        <v>8998848512</v>
       </c>
       <c r="D187" s="3">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4534,10 +4534,10 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>128.28</v>
+        <v>128.53</v>
       </c>
       <c r="C188" s="2">
-        <v>79188525056</v>
+        <v>79342854144</v>
       </c>
       <c r="D188" s="3">
         <v>154</v>
@@ -4548,10 +4548,10 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>828.7003</v>
+        <v>844.5</v>
       </c>
       <c r="C189" s="2">
-        <v>20711790592</v>
+        <v>21106673664</v>
       </c>
       <c r="D189" s="3">
         <v>23</v>
@@ -4562,13 +4562,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>58.97</v>
+        <v>61.56</v>
       </c>
       <c r="C190" s="2">
-        <v>34936008704</v>
+        <v>36470423552</v>
       </c>
       <c r="D190" s="3">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4576,13 +4576,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>27.06</v>
+        <v>28.23</v>
       </c>
       <c r="C191" s="2">
-        <v>18420174848</v>
+        <v>19220393984</v>
       </c>
       <c r="D191" s="3">
-        <v>734</v>
+        <v>704</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4590,13 +4590,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>259.225</v>
+        <v>252.44</v>
       </c>
       <c r="C192" s="2">
-        <v>19139670016</v>
+        <v>18638704640</v>
       </c>
       <c r="D192" s="3">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4604,10 +4604,10 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>95.575</v>
+        <v>95.16</v>
       </c>
       <c r="C193" s="2">
-        <v>11960445952</v>
+        <v>11908512768</v>
       </c>
       <c r="D193" s="3">
         <v>208</v>
@@ -4618,13 +4618,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>31.19</v>
+        <v>31.42</v>
       </c>
       <c r="C194" s="2">
-        <v>16294965248</v>
+        <v>16400077824</v>
       </c>
       <c r="D194" s="3">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4632,13 +4632,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>33.28</v>
+        <v>33.51</v>
       </c>
       <c r="C195" s="2">
-        <v>16307731456</v>
+        <v>16432800768</v>
       </c>
       <c r="D195" s="3">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4646,13 +4646,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>100.005</v>
+        <v>103.25</v>
       </c>
       <c r="C196" s="2">
-        <v>8215650304</v>
+        <v>8482235392</v>
       </c>
       <c r="D196" s="3">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4660,13 +4660,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>201.07</v>
+        <v>197.91</v>
       </c>
       <c r="C197" s="2">
-        <v>21479503872</v>
+        <v>21141934080</v>
       </c>
       <c r="D197" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4674,13 +4674,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>79.29000000000001</v>
+        <v>78.16</v>
       </c>
       <c r="C198" s="2">
-        <v>62258192384</v>
+        <v>61370925056</v>
       </c>
       <c r="D198" s="3">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4688,10 +4688,10 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>74.31</v>
+        <v>74.27</v>
       </c>
       <c r="C199" s="2">
-        <v>26137948160</v>
+        <v>26123878400</v>
       </c>
       <c r="D199" s="3">
         <v>267</v>
@@ -4702,10 +4702,10 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>216.09</v>
+        <v>215.47</v>
       </c>
       <c r="C200" s="2">
-        <v>59281264640</v>
+        <v>59111178240</v>
       </c>
       <c r="D200" s="3">
         <v>92</v>
@@ -4716,13 +4716,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>111.71</v>
+        <v>110.33</v>
       </c>
       <c r="C201" s="2">
-        <v>121795174400</v>
+        <v>120290590720</v>
       </c>
       <c r="D201" s="3">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4730,13 +4730,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>82.12</v>
+        <v>82.63</v>
       </c>
       <c r="C202" s="2">
-        <v>37338075136</v>
+        <v>37569957888</v>
       </c>
       <c r="D202" s="3">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4744,13 +4744,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>18.97</v>
+        <v>19.26</v>
       </c>
       <c r="C203" s="2">
-        <v>12155425792</v>
+        <v>12341250048</v>
       </c>
       <c r="D203" s="3">
-        <v>1048</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4758,13 +4758,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>76.87</v>
+        <v>80.64</v>
       </c>
       <c r="C204" s="2">
-        <v>95883796480</v>
+        <v>100586307584</v>
       </c>
       <c r="D204" s="3">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4772,13 +4772,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>74.68000000000001</v>
+        <v>77</v>
       </c>
       <c r="C205" s="2">
-        <v>43701465088</v>
+        <v>45059088384</v>
       </c>
       <c r="D205" s="3">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4786,13 +4786,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>110.89</v>
+        <v>114.69</v>
       </c>
       <c r="C206" s="2">
-        <v>10596071424</v>
+        <v>10959179776</v>
       </c>
       <c r="D206" s="3">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4800,13 +4800,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>33.71</v>
+        <v>33.22</v>
       </c>
       <c r="C207" s="2">
-        <v>28657881088</v>
+        <v>28241319936</v>
       </c>
       <c r="D207" s="3">
-        <v>589</v>
+        <v>598</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4814,13 +4814,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>38.98</v>
+        <v>38.55</v>
       </c>
       <c r="C208" s="2">
-        <v>54186872832</v>
+        <v>53589123072</v>
       </c>
       <c r="D208" s="3">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4828,13 +4828,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>143.265</v>
+        <v>145.3</v>
       </c>
       <c r="C209" s="2">
-        <v>8910123008</v>
+        <v>9036686336</v>
       </c>
       <c r="D209" s="3">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4842,13 +4842,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>125.46</v>
+        <v>120.31</v>
       </c>
       <c r="C210" s="2">
-        <v>1591058628608</v>
+        <v>1525314224128</v>
       </c>
       <c r="D210" s="3">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4856,13 +4856,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>125.2</v>
+        <v>120.02</v>
       </c>
       <c r="C211" s="2">
-        <v>1591304519680</v>
+        <v>1525850177536</v>
       </c>
       <c r="D211" s="3">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4870,13 +4870,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>166.3175</v>
+        <v>156.31</v>
       </c>
       <c r="C212" s="2">
-        <v>23370270720</v>
+        <v>21964056576</v>
       </c>
       <c r="D212" s="3">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4884,13 +4884,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>111.96</v>
+        <v>110.49</v>
       </c>
       <c r="C213" s="2">
-        <v>29328257024</v>
+        <v>28943185920</v>
       </c>
       <c r="D213" s="3">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4898,10 +4898,10 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>105.92</v>
+        <v>105.97</v>
       </c>
       <c r="C214" s="2">
-        <v>20261437440</v>
+        <v>20271001600</v>
       </c>
       <c r="D214" s="3">
         <v>187</v>
@@ -4912,13 +4912,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>326.09</v>
+        <v>351.96</v>
       </c>
       <c r="C215" s="2">
-        <v>108407963648</v>
+        <v>117008392192</v>
       </c>
       <c r="D215" s="3">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4926,10 +4926,10 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>764.6900000000001</v>
+        <v>769</v>
       </c>
       <c r="C216" s="2">
-        <v>38362202112</v>
+        <v>38578421760</v>
       </c>
       <c r="D216" s="3">
         <v>25</v>
@@ -4940,13 +4940,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>37.28</v>
+        <v>36.94</v>
       </c>
       <c r="C217" s="2">
-        <v>33633828864</v>
+        <v>33327081472</v>
       </c>
       <c r="D217" s="3">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4954,13 +4954,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>63.79</v>
+        <v>63.96</v>
       </c>
       <c r="C218" s="2">
-        <v>8841867264</v>
+        <v>8865430528</v>
       </c>
       <c r="D218" s="3">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4968,13 +4968,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>11.2807</v>
+        <v>11.78</v>
       </c>
       <c r="C219" s="2">
-        <v>16284931072</v>
+        <v>17056025600</v>
       </c>
       <c r="D219" s="3">
-        <v>1762</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4982,13 +4982,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>293.24</v>
+        <v>285.14</v>
       </c>
       <c r="C220" s="2">
-        <v>80667090944</v>
+        <v>78438875136</v>
       </c>
       <c r="D220" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4996,10 +4996,10 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>315.86</v>
+        <v>320.47</v>
       </c>
       <c r="C221" s="2">
-        <v>317559308288</v>
+        <v>322194112512</v>
       </c>
       <c r="D221" s="3">
         <v>62</v>
@@ -5010,13 +5010,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>135.61</v>
+        <v>142.2</v>
       </c>
       <c r="C222" s="2">
-        <v>41639321600</v>
+        <v>44360712192</v>
       </c>
       <c r="D222" s="3">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5024,13 +5024,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>71.55</v>
+        <v>74.16</v>
       </c>
       <c r="C223" s="2">
-        <v>22197315584</v>
+        <v>23007029248</v>
       </c>
       <c r="D223" s="3">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5038,13 +5038,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>229.63</v>
+        <v>231.57</v>
       </c>
       <c r="C224" s="2">
-        <v>9160101888</v>
+        <v>9237489664</v>
       </c>
       <c r="D224" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5052,13 +5052,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>148.9175</v>
+        <v>151.84</v>
       </c>
       <c r="C225" s="2">
-        <v>39407591424</v>
+        <v>40180965376</v>
       </c>
       <c r="D225" s="3">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5066,13 +5066,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>78.80500000000001</v>
+        <v>80.88</v>
       </c>
       <c r="C226" s="2">
-        <v>19429687296</v>
+        <v>19941285888</v>
       </c>
       <c r="D226" s="3">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5080,10 +5080,10 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>207.71</v>
+        <v>208.6</v>
       </c>
       <c r="C227" s="2">
-        <v>138267770880</v>
+        <v>138860232704</v>
       </c>
       <c r="D227" s="3">
         <v>95</v>
@@ -5094,13 +5094,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>16.935</v>
+        <v>17.26</v>
       </c>
       <c r="C228" s="2">
-        <v>21871890432</v>
+        <v>22291636224</v>
       </c>
       <c r="D228" s="3">
-        <v>1173</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5108,13 +5108,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>32.7</v>
+        <v>32.24</v>
       </c>
       <c r="C229" s="2">
-        <v>32240760832</v>
+        <v>31787223040</v>
       </c>
       <c r="D229" s="3">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5122,13 +5122,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>39.69</v>
+        <v>40.14</v>
       </c>
       <c r="C230" s="2">
-        <v>21681377280</v>
+        <v>21927198720</v>
       </c>
       <c r="D230" s="3">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5136,13 +5136,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>79.72</v>
+        <v>79.92</v>
       </c>
       <c r="C231" s="2">
-        <v>10443558912</v>
+        <v>10469760000</v>
       </c>
       <c r="D231" s="3">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5150,13 +5150,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>17.555</v>
+        <v>17.57</v>
       </c>
       <c r="C232" s="2">
-        <v>12485836800</v>
+        <v>12496504832</v>
       </c>
       <c r="D232" s="3">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5164,13 +5164,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>238.47</v>
+        <v>246.64</v>
       </c>
       <c r="C233" s="2">
-        <v>48743030784</v>
+        <v>50412969984</v>
       </c>
       <c r="D233" s="3">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5178,13 +5178,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>435.01</v>
+        <v>456.89</v>
       </c>
       <c r="C234" s="2">
-        <v>54352326656</v>
+        <v>57086124032</v>
       </c>
       <c r="D234" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5192,13 +5192,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>49.575</v>
+        <v>49.91</v>
       </c>
       <c r="C235" s="2">
-        <v>20488902656</v>
+        <v>20627353600</v>
       </c>
       <c r="D235" s="3">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5206,13 +5206,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>133.89</v>
+        <v>138.94</v>
       </c>
       <c r="C236" s="2">
-        <v>121578143744</v>
+        <v>126163771392</v>
       </c>
       <c r="D236" s="3">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5220,13 +5220,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>116.29</v>
+        <v>116.22</v>
       </c>
       <c r="C237" s="2">
-        <v>65106935808</v>
+        <v>65067745280</v>
       </c>
       <c r="D237" s="3">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5234,13 +5234,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>535.86</v>
+        <v>554.6</v>
       </c>
       <c r="C238" s="2">
-        <v>44479000576</v>
+        <v>46034513920</v>
       </c>
       <c r="D238" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5248,13 +5248,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>209.66</v>
+        <v>212.64</v>
       </c>
       <c r="C239" s="2">
-        <v>15845348352</v>
+        <v>16070565888</v>
       </c>
       <c r="D239" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5262,13 +5262,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>79.3609</v>
+        <v>84</v>
       </c>
       <c r="C240" s="2">
-        <v>20244252672</v>
+        <v>21427644416</v>
       </c>
       <c r="D240" s="3">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5276,13 +5276,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>184.7</v>
+        <v>190.49</v>
       </c>
       <c r="C241" s="2">
-        <v>29201070080</v>
+        <v>30116470784</v>
       </c>
       <c r="D241" s="3">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5290,13 +5290,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>61.16</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="C242" s="2">
-        <v>13644061696</v>
+        <v>14311095296</v>
       </c>
       <c r="D242" s="3">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5304,13 +5304,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>33.505</v>
+        <v>34.02</v>
       </c>
       <c r="C243" s="2">
-        <v>139749359616</v>
+        <v>142434254848</v>
       </c>
       <c r="D243" s="3">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>483.555</v>
+        <v>492.52</v>
       </c>
       <c r="C244" s="2">
-        <v>135424409600</v>
+        <v>137935142912</v>
       </c>
       <c r="D244" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5332,13 +5332,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>35.34</v>
+        <v>36.14</v>
       </c>
       <c r="C245" s="2">
-        <v>21714911232</v>
+        <v>22206476288</v>
       </c>
       <c r="D245" s="3">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5346,13 +5346,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>31.155</v>
+        <v>31.85</v>
       </c>
       <c r="C246" s="2">
-        <v>10812560384</v>
+        <v>11053765632</v>
       </c>
       <c r="D246" s="3">
-        <v>638</v>
+        <v>624</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5360,13 +5360,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>39.345</v>
+        <v>32.87</v>
       </c>
       <c r="C247" s="2">
-        <v>15188468736</v>
+        <v>12688904192</v>
       </c>
       <c r="D247" s="3">
-        <v>505</v>
+        <v>604</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5374,13 +5374,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>220.26</v>
+        <v>228.26</v>
       </c>
       <c r="C248" s="2">
-        <v>40869019648</v>
+        <v>42353410048</v>
       </c>
       <c r="D248" s="3">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5388,13 +5388,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>66.419</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="C249" s="2">
-        <v>26867746816</v>
+        <v>26398976000</v>
       </c>
       <c r="D249" s="3">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5402,13 +5402,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>59.96</v>
+        <v>61.89</v>
       </c>
       <c r="C250" s="2">
-        <v>17485715456</v>
+        <v>18048546816</v>
       </c>
       <c r="D250" s="3">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5416,13 +5416,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>351.7</v>
+        <v>336.66</v>
       </c>
       <c r="C251" s="2">
-        <v>123234983936</v>
+        <v>117964996608</v>
       </c>
       <c r="D251" s="3">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5430,13 +5430,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>365.655</v>
+        <v>355.85</v>
       </c>
       <c r="C252" s="2">
-        <v>28908904448</v>
+        <v>28133715968</v>
       </c>
       <c r="D252" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5444,13 +5444,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>250.42</v>
+        <v>255.57</v>
       </c>
       <c r="C253" s="2">
-        <v>76103393280</v>
+        <v>77668491264</v>
       </c>
       <c r="D253" s="3">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5458,13 +5458,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>17.685</v>
+        <v>17.84</v>
       </c>
       <c r="C254" s="2">
-        <v>8102718464</v>
+        <v>8308409344</v>
       </c>
       <c r="D254" s="3">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5472,13 +5472,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>122.9175</v>
+        <v>125.97</v>
       </c>
       <c r="C255" s="2">
-        <v>15592085504</v>
+        <v>15979294720</v>
       </c>
       <c r="D255" s="3">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5486,13 +5486,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>181.73</v>
+        <v>195.59</v>
       </c>
       <c r="C256" s="2">
-        <v>18835951616</v>
+        <v>20213248000</v>
       </c>
       <c r="D256" s="3">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5500,13 +5500,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>69.23</v>
+        <v>68.97</v>
       </c>
       <c r="C257" s="2">
-        <v>47498637312</v>
+        <v>47320248320</v>
       </c>
       <c r="D257" s="3">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5514,13 +5514,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>167.24</v>
+        <v>171.61</v>
       </c>
       <c r="C258" s="2">
-        <v>12187665408</v>
+        <v>12506129408</v>
       </c>
       <c r="D258" s="3">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5528,13 +5528,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>158.73</v>
+        <v>170.19</v>
       </c>
       <c r="C259" s="2">
-        <v>412496396288</v>
+        <v>442277855232</v>
       </c>
       <c r="D259" s="3">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5542,13 +5542,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>29.375</v>
+        <v>30.01</v>
       </c>
       <c r="C260" s="2">
-        <v>9446764544</v>
+        <v>9650975744</v>
       </c>
       <c r="D260" s="3">
-        <v>676</v>
+        <v>662</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5556,13 +5556,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>151.39</v>
+        <v>154.95</v>
       </c>
       <c r="C261" s="2">
-        <v>442405453824</v>
+        <v>450300182528</v>
       </c>
       <c r="D261" s="3">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5570,13 +5570,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>67.25</v>
+        <v>67.78</v>
       </c>
       <c r="C262" s="2">
-        <v>23050477568</v>
+        <v>23232137216</v>
       </c>
       <c r="D262" s="3">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5584,13 +5584,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>31.695</v>
+        <v>32.58</v>
       </c>
       <c r="C263" s="2">
-        <v>44492804096</v>
+        <v>45735153664</v>
       </c>
       <c r="D263" s="3">
-        <v>627</v>
+        <v>610</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5598,13 +5598,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>10.24</v>
+        <v>11.43</v>
       </c>
       <c r="C264" s="2">
-        <v>9577103360</v>
+        <v>10690067456</v>
       </c>
       <c r="D264" s="3">
-        <v>1941</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5612,13 +5612,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>168.605</v>
+        <v>168.32</v>
       </c>
       <c r="C265" s="2">
-        <v>30073735168</v>
+        <v>30022903808</v>
       </c>
       <c r="D265" s="3">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5626,13 +5626,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>35.7</v>
+        <v>36.32</v>
       </c>
       <c r="C266" s="2">
-        <v>43812466688</v>
+        <v>44573356032</v>
       </c>
       <c r="D266" s="3">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5640,13 +5640,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>20.51</v>
+        <v>20.92</v>
       </c>
       <c r="C267" s="2">
-        <v>12713984000</v>
+        <v>12968139776</v>
       </c>
       <c r="D267" s="3">
-        <v>969</v>
+        <v>950</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5654,13 +5654,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>478.29</v>
+        <v>458.56</v>
       </c>
       <c r="C268" s="2">
-        <v>65620914176</v>
+        <v>62913978368</v>
       </c>
       <c r="D268" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5668,13 +5668,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>134.84</v>
+        <v>137.15</v>
       </c>
       <c r="C269" s="2">
-        <v>45492453376</v>
+        <v>46271799296</v>
       </c>
       <c r="D269" s="3">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5682,13 +5682,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>17.2201</v>
+        <v>17.8</v>
       </c>
       <c r="C270" s="2">
-        <v>38711128064</v>
+        <v>40014753792</v>
       </c>
       <c r="D270" s="3">
-        <v>1154</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5696,13 +5696,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>84.02500000000001</v>
+        <v>83.28</v>
       </c>
       <c r="C271" s="2">
-        <v>13293595648</v>
+        <v>13175728128</v>
       </c>
       <c r="D271" s="3">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5710,13 +5710,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>60.8</v>
+        <v>62.44</v>
       </c>
       <c r="C272" s="2">
-        <v>262934446080</v>
+        <v>270026752000</v>
       </c>
       <c r="D272" s="3">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5724,13 +5724,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>46.36</v>
+        <v>47.99</v>
       </c>
       <c r="C273" s="2">
-        <v>33274703872</v>
+        <v>34444632064</v>
       </c>
       <c r="D273" s="3">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5738,13 +5738,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>60.18</v>
+        <v>61.5</v>
       </c>
       <c r="C274" s="2">
-        <v>13714902016</v>
+        <v>14015726592</v>
       </c>
       <c r="D274" s="3">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5752,13 +5752,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>89.98009999999999</v>
+        <v>91.31</v>
       </c>
       <c r="C275" s="2">
-        <v>12344639488</v>
+        <v>12527091712</v>
       </c>
       <c r="D275" s="3">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5766,13 +5766,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>130.74</v>
+        <v>126.65</v>
       </c>
       <c r="C276" s="2">
-        <v>37155393536</v>
+        <v>35984429056</v>
       </c>
       <c r="D276" s="3">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5780,13 +5780,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>211.6</v>
+        <v>219.21</v>
       </c>
       <c r="C277" s="2">
-        <v>18747760640</v>
+        <v>19422007296</v>
       </c>
       <c r="D277" s="3">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5794,13 +5794,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>196.93</v>
+        <v>199.97</v>
       </c>
       <c r="C278" s="2">
-        <v>37308977152</v>
+        <v>37884915712</v>
       </c>
       <c r="D278" s="3">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5808,13 +5808,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>381.73</v>
+        <v>384.54</v>
       </c>
       <c r="C279" s="2">
-        <v>186893860864</v>
+        <v>188269625344</v>
       </c>
       <c r="D279" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5822,13 +5822,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>58.48</v>
+        <v>57.01</v>
       </c>
       <c r="C280" s="2">
-        <v>15631119360</v>
+        <v>15238202368</v>
       </c>
       <c r="D280" s="3">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5836,13 +5836,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>443.65</v>
+        <v>462.04</v>
       </c>
       <c r="C281" s="2">
-        <v>421144985600</v>
+        <v>438602104832</v>
       </c>
       <c r="D281" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5850,13 +5850,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>469.53</v>
+        <v>454.76</v>
       </c>
       <c r="C282" s="2">
-        <v>118909878272</v>
+        <v>114522669056</v>
       </c>
       <c r="D282" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5864,13 +5864,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>26.6</v>
+        <v>27.14</v>
       </c>
       <c r="C283" s="2">
-        <v>4510269440</v>
+        <v>4601831424</v>
       </c>
       <c r="D283" s="3">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5878,13 +5878,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>53.64</v>
+        <v>55.74</v>
       </c>
       <c r="C284" s="2">
-        <v>13484451840</v>
+        <v>14012367872</v>
       </c>
       <c r="D284" s="3">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5892,13 +5892,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>229.37</v>
+        <v>233.78</v>
       </c>
       <c r="C285" s="2">
-        <v>134406455296</v>
+        <v>136990638080</v>
       </c>
       <c r="D285" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5906,10 +5906,10 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>641.0700000000001</v>
+        <v>623.63</v>
       </c>
       <c r="C286" s="2">
-        <v>86121340928</v>
+        <v>83778453504</v>
       </c>
       <c r="D286" s="3">
         <v>31</v>
@@ -5920,13 +5920,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>36.48</v>
+        <v>37.25</v>
       </c>
       <c r="C287" s="2">
-        <v>21708263424</v>
+        <v>22166470656</v>
       </c>
       <c r="D287" s="3">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5934,13 +5934,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>59.57</v>
+        <v>55.97</v>
       </c>
       <c r="C288" s="2">
-        <v>45527621632</v>
+        <v>42776248320</v>
       </c>
       <c r="D288" s="3">
-        <v>333</v>
+        <v>355</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5948,13 +5948,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>112.94</v>
+        <v>112.96</v>
       </c>
       <c r="C289" s="2">
-        <v>16455810048</v>
+        <v>16458723328</v>
       </c>
       <c r="D289" s="3">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5962,13 +5962,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>90.77500000000001</v>
+        <v>91.77</v>
       </c>
       <c r="C290" s="2">
-        <v>29526747136</v>
+        <v>29850392576</v>
       </c>
       <c r="D290" s="3">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5976,13 +5976,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>94.23</v>
+        <v>96.84</v>
       </c>
       <c r="C291" s="2">
-        <v>21662629888</v>
+        <v>23051309056</v>
       </c>
       <c r="D291" s="3">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5990,13 +5990,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>402.58</v>
+        <v>397.49</v>
       </c>
       <c r="C292" s="2">
-        <v>381496459264</v>
+        <v>376673042432</v>
       </c>
       <c r="D292" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6004,13 +6004,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>155.395</v>
+        <v>154.77</v>
       </c>
       <c r="C293" s="2">
-        <v>18620207104</v>
+        <v>18545315840</v>
       </c>
       <c r="D293" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6018,13 +6018,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>191.36</v>
+        <v>194.9</v>
       </c>
       <c r="C294" s="2">
-        <v>58049818624</v>
+        <v>59123691520</v>
       </c>
       <c r="D294" s="3">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6032,13 +6032,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>59.6275</v>
+        <v>59.24</v>
       </c>
       <c r="C295" s="2">
-        <v>13421493248</v>
+        <v>13334272000</v>
       </c>
       <c r="D295" s="3">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6046,10 +6046,10 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>295.9</v>
+        <v>295.61</v>
       </c>
       <c r="C296" s="2">
-        <v>216034820096</v>
+        <v>215823073280</v>
       </c>
       <c r="D296" s="3">
         <v>67</v>
@@ -6060,10 +6060,10 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>89.84</v>
+        <v>89.72</v>
       </c>
       <c r="C297" s="2">
-        <v>48902967296</v>
+        <v>48837648384</v>
       </c>
       <c r="D297" s="3">
         <v>221</v>
@@ -6074,13 +6074,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>411.635</v>
+        <v>414.25</v>
       </c>
       <c r="C298" s="2">
-        <v>55781892096</v>
+        <v>56136257536</v>
       </c>
       <c r="D298" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6088,13 +6088,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>354.25</v>
+        <v>357.78</v>
       </c>
       <c r="C299" s="2">
-        <v>65004875776</v>
+        <v>65652629504</v>
       </c>
       <c r="D299" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6102,13 +6102,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>72.23</v>
+        <v>73.98</v>
       </c>
       <c r="C300" s="2">
-        <v>98366431232</v>
+        <v>100749664256</v>
       </c>
       <c r="D300" s="3">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6116,13 +6116,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>87.465</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="C301" s="2">
-        <v>116364304384</v>
+        <v>118353272832</v>
       </c>
       <c r="D301" s="3">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6130,13 +6130,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>58.5</v>
+        <v>61.2</v>
       </c>
       <c r="C302" s="2">
-        <v>44800528384</v>
+        <v>46868246528</v>
       </c>
       <c r="D302" s="3">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6144,13 +6144,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>306.81</v>
+        <v>294.26</v>
       </c>
       <c r="C303" s="2">
-        <v>786271174656</v>
+        <v>754108923904</v>
       </c>
       <c r="D303" s="3">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6158,13 +6158,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>47.915</v>
+        <v>49.62</v>
       </c>
       <c r="C304" s="2">
-        <v>17431429120</v>
+        <v>18051706880</v>
       </c>
       <c r="D304" s="3">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6172,13 +6172,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>111.54</v>
+        <v>110.29</v>
       </c>
       <c r="C305" s="2">
-        <v>7102822400</v>
+        <v>7023223296</v>
       </c>
       <c r="D305" s="3">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6186,13 +6186,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>85.455</v>
+        <v>88.13</v>
       </c>
       <c r="C306" s="2">
-        <v>22943215616</v>
+        <v>23645366272</v>
       </c>
       <c r="D306" s="3">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6200,13 +6200,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>248.35</v>
+        <v>270.61</v>
       </c>
       <c r="C307" s="2">
-        <v>9355195392</v>
+        <v>10193716224</v>
       </c>
       <c r="D307" s="3">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6214,10 +6214,10 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>457.18</v>
+        <v>457.89</v>
       </c>
       <c r="C308" s="2">
-        <v>28330895360</v>
+        <v>28374894592</v>
       </c>
       <c r="D308" s="3">
         <v>43</v>
@@ -6228,13 +6228,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>187.9698</v>
+        <v>191.43</v>
       </c>
       <c r="C309" s="2">
-        <v>92992610304</v>
+        <v>94704435200</v>
       </c>
       <c r="D309" s="3">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6242,13 +6242,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>101.7</v>
+        <v>104.33</v>
       </c>
       <c r="C310" s="2">
-        <v>56105041920</v>
+        <v>57555939328</v>
       </c>
       <c r="D310" s="3">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6256,13 +6256,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>57.445</v>
+        <v>58.1</v>
       </c>
       <c r="C311" s="2">
-        <v>60128256000</v>
+        <v>60813848576</v>
       </c>
       <c r="D311" s="3">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6270,13 +6270,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="C312" s="2">
-        <v>81040818176</v>
+        <v>81397817344</v>
       </c>
       <c r="D312" s="3">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6284,13 +6284,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>296.93</v>
+        <v>318.47</v>
       </c>
       <c r="C313" s="2">
-        <v>17311019008</v>
+        <v>18566801408</v>
       </c>
       <c r="D313" s="3">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6298,13 +6298,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>36.235</v>
+        <v>38.56</v>
       </c>
       <c r="C314" s="2">
-        <v>12033969152</v>
+        <v>12806123520</v>
       </c>
       <c r="D314" s="3">
-        <v>548</v>
+        <v>515</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6312,13 +6312,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>118.9404</v>
+        <v>125.82</v>
       </c>
       <c r="C315" s="2">
-        <v>51144372224</v>
+        <v>54102601728</v>
       </c>
       <c r="D315" s="3">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6326,13 +6326,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>571.86</v>
+        <v>533.67</v>
       </c>
       <c r="C316" s="2">
-        <v>27119316992</v>
+        <v>25308231680</v>
       </c>
       <c r="D316" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6340,13 +6340,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>106.52</v>
+        <v>110.39</v>
       </c>
       <c r="C317" s="2">
-        <v>270288093184</v>
+        <v>280108007424</v>
       </c>
       <c r="D317" s="3">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6354,13 +6354,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>122</v>
+        <v>126.43</v>
       </c>
       <c r="C318" s="2">
-        <v>46507495424</v>
+        <v>48196251648</v>
       </c>
       <c r="D318" s="3">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6368,13 +6368,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>24.135</v>
+        <v>25.29</v>
       </c>
       <c r="C319" s="2">
-        <v>14905872384</v>
+        <v>15619205120</v>
       </c>
       <c r="D319" s="3">
-        <v>823</v>
+        <v>786</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6382,13 +6382,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>86.37</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="C320" s="2">
-        <v>144247406592</v>
+        <v>155962605568</v>
       </c>
       <c r="D320" s="3">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6396,13 +6396,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>492.1375</v>
+        <v>511.42</v>
       </c>
       <c r="C321" s="2">
-        <v>39402201088</v>
+        <v>41239633920</v>
       </c>
       <c r="D321" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6410,10 +6410,10 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>342.775</v>
+        <v>343.77</v>
       </c>
       <c r="C322" s="2">
-        <v>2548700020736</v>
+        <v>2556098248704</v>
       </c>
       <c r="D322" s="3">
         <v>57</v>
@@ -6424,13 +6424,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>290.69</v>
+        <v>296.19</v>
       </c>
       <c r="C323" s="2">
-        <v>48753651712</v>
+        <v>49676095488</v>
       </c>
       <c r="D323" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6438,13 +6438,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>130.6</v>
+        <v>137.86</v>
       </c>
       <c r="C324" s="2">
-        <v>21662623744</v>
+        <v>22870147072</v>
       </c>
       <c r="D324" s="3">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6452,13 +6452,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>48.67</v>
+        <v>44.84</v>
       </c>
       <c r="C325" s="2">
-        <v>13552696320</v>
+        <v>12486191104</v>
       </c>
       <c r="D325" s="3">
-        <v>408</v>
+        <v>443</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6466,13 +6466,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>1316.03</v>
+        <v>1361.86</v>
       </c>
       <c r="C326" s="2">
-        <v>28979245056</v>
+        <v>29988429824</v>
       </c>
       <c r="D326" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6480,13 +6480,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>63.83</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="C327" s="2">
-        <v>69913001984</v>
+        <v>71906443264</v>
       </c>
       <c r="D327" s="3">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6494,13 +6494,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>20.93</v>
+        <v>21.03</v>
       </c>
       <c r="C328" s="2">
-        <v>8877773824</v>
+        <v>8920189952</v>
       </c>
       <c r="D328" s="3">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6508,13 +6508,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>50.55</v>
+        <v>50.71</v>
       </c>
       <c r="C329" s="2">
-        <v>24808169472</v>
+        <v>24886691840</v>
       </c>
       <c r="D329" s="3">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6522,13 +6522,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>246.535</v>
+        <v>243.35</v>
       </c>
       <c r="C330" s="2">
-        <v>14050300928</v>
+        <v>13868784640</v>
       </c>
       <c r="D330" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6536,13 +6536,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>73.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C331" s="2">
-        <v>147911999488</v>
+        <v>153577586688</v>
       </c>
       <c r="D331" s="3">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6550,13 +6550,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>44.945</v>
+        <v>43.21</v>
       </c>
       <c r="C332" s="2">
-        <v>35719184384</v>
+        <v>34340370432</v>
       </c>
       <c r="D332" s="3">
-        <v>442</v>
+        <v>460</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6564,13 +6564,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>455.685</v>
+        <v>427.5</v>
       </c>
       <c r="C333" s="2">
-        <v>202570661888</v>
+        <v>190041276416</v>
       </c>
       <c r="D333" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6578,13 +6578,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>27.79</v>
+        <v>28.08</v>
       </c>
       <c r="C334" s="2">
-        <v>11479021568</v>
+        <v>11598809088</v>
       </c>
       <c r="D334" s="3">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6592,13 +6592,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>107.53</v>
+        <v>109.06</v>
       </c>
       <c r="C335" s="2">
-        <v>165272535040</v>
+        <v>167624114176</v>
       </c>
       <c r="D335" s="3">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6606,10 +6606,10 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>453.985</v>
+        <v>453.42</v>
       </c>
       <c r="C336" s="2">
-        <v>68941709312</v>
+        <v>68855914496</v>
       </c>
       <c r="D336" s="3">
         <v>43</v>
@@ -6620,10 +6620,10 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>584.6799999999999</v>
+        <v>582.02</v>
       </c>
       <c r="C337" s="2">
-        <v>119122698240</v>
+        <v>119531782144</v>
       </c>
       <c r="D337" s="3">
         <v>34</v>
@@ -6634,13 +6634,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>36.61</v>
+        <v>38.2</v>
       </c>
       <c r="C338" s="2">
-        <v>8428793856</v>
+        <v>8794862592</v>
       </c>
       <c r="D338" s="3">
-        <v>543</v>
+        <v>520</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6648,10 +6648,10 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>233.07</v>
+        <v>233.01</v>
       </c>
       <c r="C339" s="2">
-        <v>53056057344</v>
+        <v>53042397184</v>
       </c>
       <c r="D339" s="3">
         <v>85</v>
@@ -6662,13 +6662,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>77.41</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="C340" s="2">
-        <v>16444284928</v>
+        <v>16890389504</v>
       </c>
       <c r="D340" s="3">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6676,13 +6676,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>71.70999999999999</v>
+        <v>78.75</v>
       </c>
       <c r="C341" s="2">
-        <v>14940205056</v>
+        <v>16406932480</v>
       </c>
       <c r="D341" s="3">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6690,13 +6690,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>165.99</v>
+        <v>163.83</v>
       </c>
       <c r="C342" s="2">
-        <v>41700507648</v>
+        <v>41157865472</v>
       </c>
       <c r="D342" s="3">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6704,13 +6704,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>454.455</v>
+        <v>443.09</v>
       </c>
       <c r="C343" s="2">
-        <v>1122503884800</v>
+        <v>1094432325632</v>
       </c>
       <c r="D343" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6718,10 +6718,10 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>6349.37</v>
+        <v>6244.69</v>
       </c>
       <c r="C344" s="2">
-        <v>20616087552</v>
+        <v>20276195328</v>
       </c>
       <c r="D344" s="3">
         <v>3</v>
@@ -6732,13 +6732,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>9.5662</v>
+        <v>10.01</v>
       </c>
       <c r="C345" s="2">
-        <v>3961363456</v>
+        <v>4145140992</v>
       </c>
       <c r="D345" s="3">
-        <v>2078</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6746,13 +6746,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>20.425</v>
+        <v>19.88</v>
       </c>
       <c r="C346" s="2">
-        <v>11607792640</v>
+        <v>11277863936</v>
       </c>
       <c r="D346" s="3">
-        <v>973</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6760,13 +6760,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>20.185</v>
+        <v>19.65</v>
       </c>
       <c r="C347" s="2">
-        <v>11579225088</v>
+        <v>11280160768</v>
       </c>
       <c r="D347" s="3">
-        <v>984</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6774,13 +6774,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>213.825</v>
+        <v>213.3</v>
       </c>
       <c r="C348" s="2">
-        <v>55539548160</v>
+        <v>55403184128</v>
       </c>
       <c r="D348" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6788,13 +6788,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>60.965</v>
+        <v>62.75</v>
       </c>
       <c r="C349" s="2">
-        <v>41042980864</v>
+        <v>42244681728</v>
       </c>
       <c r="D349" s="3">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6802,13 +6802,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>376.49</v>
+        <v>394.49</v>
       </c>
       <c r="C350" s="2">
-        <v>41282879488</v>
+        <v>43256614912</v>
       </c>
       <c r="D350" s="3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6816,13 +6816,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>20.1711</v>
+        <v>21.17</v>
       </c>
       <c r="C351" s="2">
-        <v>5144881152</v>
+        <v>5399662592</v>
       </c>
       <c r="D351" s="3">
-        <v>985</v>
+        <v>939</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6830,13 +6830,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>64.02</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C352" s="2">
-        <v>28645427200</v>
+        <v>29750616064</v>
       </c>
       <c r="D352" s="3">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6844,13 +6844,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>95.95999999999999</v>
+        <v>83.81</v>
       </c>
       <c r="C353" s="2">
-        <v>19145459712</v>
+        <v>16558426112</v>
       </c>
       <c r="D353" s="3">
-        <v>207</v>
+        <v>237</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6858,13 +6858,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>100.94</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="C354" s="2">
-        <v>43593261056</v>
+        <v>42651779072</v>
       </c>
       <c r="D354" s="3">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6872,13 +6872,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>119.22</v>
+        <v>117.65</v>
       </c>
       <c r="C355" s="2">
-        <v>323594092544</v>
+        <v>319332679680</v>
       </c>
       <c r="D355" s="3">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6886,10 +6886,10 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>967.465</v>
+        <v>956.23</v>
       </c>
       <c r="C356" s="2">
-        <v>58898206720</v>
+        <v>58214227968</v>
       </c>
       <c r="D356" s="3">
         <v>20</v>
@@ -6900,13 +6900,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>88.86</v>
+        <v>87.25</v>
       </c>
       <c r="C357" s="2">
-        <v>36725039104</v>
+        <v>36059639808</v>
       </c>
       <c r="D357" s="3">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6914,13 +6914,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>59.425</v>
+        <v>60.74</v>
       </c>
       <c r="C358" s="2">
-        <v>52991946752</v>
+        <v>54164594688</v>
       </c>
       <c r="D358" s="3">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6928,10 +6928,10 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>244.2625</v>
+        <v>243.82</v>
       </c>
       <c r="C359" s="2">
-        <v>74708910080</v>
+        <v>74573570048</v>
       </c>
       <c r="D359" s="3">
         <v>81</v>
@@ -6942,13 +6942,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>15.66</v>
+        <v>15.52</v>
       </c>
       <c r="C360" s="2">
-        <v>10299644928</v>
+        <v>10212687872</v>
       </c>
       <c r="D360" s="3">
-        <v>1269</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6956,13 +6956,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>355.375</v>
+        <v>350.18</v>
       </c>
       <c r="C361" s="2">
-        <v>20566652928</v>
+        <v>20266002432</v>
       </c>
       <c r="D361" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6970,13 +6970,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>121.03</v>
+        <v>123.41</v>
       </c>
       <c r="C362" s="2">
-        <v>43632402432</v>
+        <v>44494983168</v>
       </c>
       <c r="D362" s="3">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6984,13 +6984,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>86.75</v>
+        <v>87.91</v>
       </c>
       <c r="C363" s="2">
-        <v>45333729280</v>
+        <v>45939920896</v>
       </c>
       <c r="D363" s="3">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6998,13 +6998,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>17.845</v>
+        <v>17.96</v>
       </c>
       <c r="C364" s="2">
-        <v>41860440064</v>
+        <v>42130206720</v>
       </c>
       <c r="D364" s="3">
-        <v>1114</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7012,13 +7012,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>21.285</v>
+        <v>21.75</v>
       </c>
       <c r="C365" s="2">
-        <v>11642809344</v>
+        <v>11897162752</v>
       </c>
       <c r="D365" s="3">
-        <v>934</v>
+        <v>914</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7026,13 +7026,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>63.57</v>
+        <v>65.13</v>
       </c>
       <c r="C366" s="2">
-        <v>31719204864</v>
+        <v>32497588224</v>
       </c>
       <c r="D366" s="3">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7040,13 +7040,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>186.15</v>
+        <v>190.16</v>
       </c>
       <c r="C367" s="2">
-        <v>256250347520</v>
+        <v>261770444800</v>
       </c>
       <c r="D367" s="3">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7054,13 +7054,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>35.99</v>
+        <v>37.4</v>
       </c>
       <c r="C368" s="2">
-        <v>203174707200</v>
+        <v>211134595072</v>
       </c>
       <c r="D368" s="3">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7068,13 +7068,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>79.54000000000001</v>
+        <v>83.66</v>
       </c>
       <c r="C369" s="2">
-        <v>19310323712</v>
+        <v>20310558720</v>
       </c>
       <c r="D369" s="3">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7082,13 +7082,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>149.345</v>
+        <v>152.93</v>
       </c>
       <c r="C370" s="2">
-        <v>352001687552</v>
+        <v>360451407872</v>
       </c>
       <c r="D370" s="3">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7096,13 +7096,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>119.81</v>
+        <v>124.39</v>
       </c>
       <c r="C371" s="2">
-        <v>70124789760</v>
+        <v>72805466112</v>
       </c>
       <c r="D371" s="3">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7110,10 +7110,10 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>398.15</v>
+        <v>397.65</v>
       </c>
       <c r="C372" s="2">
-        <v>51081052160</v>
+        <v>51016904704</v>
       </c>
       <c r="D372" s="3">
         <v>49</v>
@@ -7124,13 +7124,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>81.52</v>
+        <v>78.09</v>
       </c>
       <c r="C373" s="2">
-        <v>18197219328</v>
+        <v>17431562240</v>
       </c>
       <c r="D373" s="3">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7138,13 +7138,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>133.6</v>
+        <v>137.35</v>
       </c>
       <c r="C374" s="2">
-        <v>12014942208</v>
+        <v>12352188416</v>
       </c>
       <c r="D374" s="3">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7152,13 +7152,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>127.955</v>
+        <v>125.44</v>
       </c>
       <c r="C375" s="2">
-        <v>118162087936</v>
+        <v>115839574016</v>
       </c>
       <c r="D375" s="3">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7166,13 +7166,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>98.62</v>
+        <v>97.52</v>
       </c>
       <c r="C376" s="2">
-        <v>153077956608</v>
+        <v>151370530816</v>
       </c>
       <c r="D376" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7180,13 +7180,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>126.79</v>
+        <v>134.26</v>
       </c>
       <c r="C377" s="2">
-        <v>50675679232</v>
+        <v>53435478016</v>
       </c>
       <c r="D377" s="3">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7194,13 +7194,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>65.65000000000001</v>
+        <v>66.34</v>
       </c>
       <c r="C378" s="2">
-        <v>10828967936</v>
+        <v>10942782464</v>
       </c>
       <c r="D378" s="3">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7208,13 +7208,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>82.73999999999999</v>
+        <v>85.42</v>
       </c>
       <c r="C379" s="2">
-        <v>9370801152</v>
+        <v>9674327040</v>
       </c>
       <c r="D379" s="3">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7222,13 +7222,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>290.17</v>
+        <v>284.28</v>
       </c>
       <c r="C380" s="2">
-        <v>20223631360</v>
+        <v>19813122048</v>
       </c>
       <c r="D380" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7236,13 +7236,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>359.745</v>
+        <v>369.75</v>
       </c>
       <c r="C381" s="2">
-        <v>14043833344</v>
+        <v>14434411520</v>
       </c>
       <c r="D381" s="3">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7250,13 +7250,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>149.62</v>
+        <v>149.35</v>
       </c>
       <c r="C382" s="2">
-        <v>35222941696</v>
+        <v>35159379968</v>
       </c>
       <c r="D382" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7264,13 +7264,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>26.755</v>
+        <v>27.89</v>
       </c>
       <c r="C383" s="2">
-        <v>19720255488</v>
+        <v>20556826624</v>
       </c>
       <c r="D383" s="3">
-        <v>743</v>
+        <v>712</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7278,13 +7278,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>91.98</v>
+        <v>94.77</v>
       </c>
       <c r="C384" s="2">
-        <v>33572702208</v>
+        <v>34591047680</v>
       </c>
       <c r="D384" s="3">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7292,13 +7292,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>301.58</v>
+        <v>291.73</v>
       </c>
       <c r="C385" s="2">
-        <v>53168250880</v>
+        <v>51431710720</v>
       </c>
       <c r="D385" s="3">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7306,13 +7306,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>100.625</v>
+        <v>105.73</v>
       </c>
       <c r="C386" s="2">
-        <v>46172991488</v>
+        <v>48515481600</v>
       </c>
       <c r="D386" s="3">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7320,10 +7320,10 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>146.025</v>
+        <v>145.53</v>
       </c>
       <c r="C387" s="2">
-        <v>17282496512</v>
+        <v>17223911424</v>
       </c>
       <c r="D387" s="3">
         <v>136</v>
@@ -7334,13 +7334,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>198.14</v>
+        <v>201.49</v>
       </c>
       <c r="C388" s="2">
-        <v>28765171712</v>
+        <v>29251512320</v>
       </c>
       <c r="D388" s="3">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7348,13 +7348,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>208.74</v>
+        <v>215.85</v>
       </c>
       <c r="C389" s="2">
-        <v>48790052864</v>
+        <v>50451918848</v>
       </c>
       <c r="D389" s="3">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7362,10 +7362,10 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>73.01000000000001</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="C390" s="2">
-        <v>81457987584</v>
+        <v>81435664384</v>
       </c>
       <c r="D390" s="3">
         <v>272</v>
@@ -7376,13 +7376,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>121.78</v>
+        <v>124.72</v>
       </c>
       <c r="C391" s="2">
-        <v>135662919680</v>
+        <v>143196028928</v>
       </c>
       <c r="D391" s="3">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7390,13 +7390,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>105.8</v>
+        <v>107.09</v>
       </c>
       <c r="C392" s="2">
-        <v>10380905472</v>
+        <v>10507478016</v>
       </c>
       <c r="D392" s="3">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7404,13 +7404,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>99.59999999999999</v>
+        <v>102.38</v>
       </c>
       <c r="C393" s="2">
-        <v>25471404032</v>
+        <v>26182352896</v>
       </c>
       <c r="D393" s="3">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7418,13 +7418,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>63.42</v>
+        <v>65.8</v>
       </c>
       <c r="C394" s="2">
-        <v>10891687936</v>
+        <v>11300426752</v>
       </c>
       <c r="D394" s="3">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7432,10 +7432,10 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>723.86</v>
+        <v>734.63</v>
       </c>
       <c r="C395" s="2">
-        <v>79414681600</v>
+        <v>80596254720</v>
       </c>
       <c r="D395" s="3">
         <v>27</v>
@@ -7446,13 +7446,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>19.205</v>
+        <v>19.72</v>
       </c>
       <c r="C396" s="2">
-        <v>18020261888</v>
+        <v>18503491584</v>
       </c>
       <c r="D396" s="3">
-        <v>1035</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7460,13 +7460,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>82.41</v>
+        <v>78.64</v>
       </c>
       <c r="C397" s="2">
-        <v>8880749568</v>
+        <v>8474482176</v>
       </c>
       <c r="D397" s="3">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7474,13 +7474,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>106.155</v>
+        <v>109.47</v>
       </c>
       <c r="C398" s="2">
-        <v>22495412224</v>
+        <v>23197898752</v>
       </c>
       <c r="D398" s="3">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7488,13 +7488,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>123.685</v>
+        <v>126.16</v>
       </c>
       <c r="C399" s="2">
-        <v>8072598016</v>
+        <v>8234135552</v>
       </c>
       <c r="D399" s="3">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7502,13 +7502,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>221.02</v>
+        <v>219.94</v>
       </c>
       <c r="C400" s="2">
-        <v>32474691584</v>
+        <v>32316006400</v>
       </c>
       <c r="D400" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7516,10 +7516,10 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>340.92</v>
+        <v>337.08</v>
       </c>
       <c r="C401" s="2">
-        <v>39163187200</v>
+        <v>38722064384</v>
       </c>
       <c r="D401" s="3">
         <v>58</v>
@@ -7530,13 +7530,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>44.44</v>
+        <v>44.52</v>
       </c>
       <c r="C402" s="2">
-        <v>21899454464</v>
+        <v>21938878464</v>
       </c>
       <c r="D402" s="3">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7544,13 +7544,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>475.605</v>
+        <v>499.38</v>
       </c>
       <c r="C403" s="2">
-        <v>50695688192</v>
+        <v>53229912064</v>
       </c>
       <c r="D403" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7558,13 +7558,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>111.3</v>
+        <v>112.03</v>
       </c>
       <c r="C404" s="2">
-        <v>37915013120</v>
+        <v>38163689472</v>
       </c>
       <c r="D404" s="3">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7572,13 +7572,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>150.6</v>
+        <v>154.95</v>
       </c>
       <c r="C405" s="2">
-        <v>47632068608</v>
+        <v>49007890432</v>
       </c>
       <c r="D405" s="3">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7586,10 +7586,10 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>96.45</v>
+        <v>96.39</v>
       </c>
       <c r="C406" s="2">
-        <v>140926943232</v>
+        <v>140839272448</v>
       </c>
       <c r="D406" s="3">
         <v>206</v>
@@ -7600,13 +7600,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>120.56</v>
+        <v>130.87</v>
       </c>
       <c r="C407" s="2">
-        <v>15123166208</v>
+        <v>16416462848</v>
       </c>
       <c r="D407" s="3">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7614,13 +7614,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>239.755</v>
+        <v>226.64</v>
       </c>
       <c r="C408" s="2">
-        <v>25974816768</v>
+        <v>24762460160</v>
       </c>
       <c r="D408" s="3">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7628,13 +7628,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>101.38</v>
+        <v>102.82</v>
       </c>
       <c r="C409" s="2">
-        <v>116222025728</v>
+        <v>117872844800</v>
       </c>
       <c r="D409" s="3">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7642,13 +7642,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>58.73</v>
+        <v>66.48</v>
       </c>
       <c r="C410" s="2">
-        <v>106890944512</v>
+        <v>120996257792</v>
       </c>
       <c r="D410" s="3">
-        <v>338</v>
+        <v>299</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7656,13 +7656,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>276.07</v>
+        <v>263.9</v>
       </c>
       <c r="C411" s="2">
-        <v>15555082240</v>
+        <v>14869365760</v>
       </c>
       <c r="D411" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7670,13 +7670,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>44.265</v>
+        <v>45.94</v>
       </c>
       <c r="C412" s="2">
-        <v>6391246336</v>
+        <v>6633092608</v>
       </c>
       <c r="D412" s="3">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7684,13 +7684,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>266.51</v>
+        <v>268.73</v>
       </c>
       <c r="C413" s="2">
-        <v>68730265600</v>
+        <v>69740003328</v>
       </c>
       <c r="D413" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7698,13 +7698,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>149.06</v>
+        <v>152.11</v>
       </c>
       <c r="C414" s="2">
-        <v>15220217856</v>
+        <v>15531648000</v>
       </c>
       <c r="D414" s="3">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7712,13 +7712,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>56.76</v>
+        <v>56.01</v>
       </c>
       <c r="C415" s="2">
-        <v>80901734400</v>
+        <v>79590203392</v>
       </c>
       <c r="D415" s="3">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7726,13 +7726,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>292.82</v>
+        <v>275.55</v>
       </c>
       <c r="C416" s="2">
-        <v>15499490304</v>
+        <v>15738864640</v>
       </c>
       <c r="D416" s="3">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7740,10 +7740,10 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>455.655</v>
+        <v>454</v>
       </c>
       <c r="C417" s="2">
-        <v>69332467712</v>
+        <v>69080637440</v>
       </c>
       <c r="D417" s="3">
         <v>43</v>
@@ -7754,13 +7754,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>70.92</v>
+        <v>73.06</v>
       </c>
       <c r="C418" s="2">
-        <v>77331169280</v>
+        <v>79664619520</v>
       </c>
       <c r="D418" s="3">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7768,13 +7768,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>121.24</v>
+        <v>123.65</v>
       </c>
       <c r="C419" s="2">
-        <v>45377343488</v>
+        <v>46152237056</v>
       </c>
       <c r="D419" s="3">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7782,13 +7782,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>416.03</v>
+        <v>423.29</v>
       </c>
       <c r="C420" s="2">
-        <v>133462425600</v>
+        <v>135791435776</v>
       </c>
       <c r="D420" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7796,13 +7796,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>147.64</v>
+        <v>151.07</v>
       </c>
       <c r="C421" s="2">
-        <v>46455365632</v>
+        <v>47534628864</v>
       </c>
       <c r="D421" s="3">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7810,13 +7810,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>228.663</v>
+        <v>232.09</v>
       </c>
       <c r="C422" s="2">
-        <v>22557833216</v>
+        <v>22895910912</v>
       </c>
       <c r="D422" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7824,13 +7824,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>106.625</v>
+        <v>100.3</v>
       </c>
       <c r="C423" s="2">
-        <v>18023249920</v>
+        <v>16954110976</v>
       </c>
       <c r="D423" s="3">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7838,13 +7838,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>67.39</v>
+        <v>70.27</v>
       </c>
       <c r="C424" s="2">
-        <v>22525714432</v>
+        <v>22634035200</v>
       </c>
       <c r="D424" s="3">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7852,13 +7852,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>60.67</v>
+        <v>59.61</v>
       </c>
       <c r="C425" s="2">
-        <v>12563664896</v>
+        <v>12460754944</v>
       </c>
       <c r="D425" s="3">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7866,13 +7866,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>254.68</v>
+        <v>269.5</v>
       </c>
       <c r="C426" s="2">
-        <v>46688956416</v>
+        <v>49405816832</v>
       </c>
       <c r="D426" s="3">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7880,13 +7880,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>96.31999999999999</v>
+        <v>97.13</v>
       </c>
       <c r="C427" s="2">
-        <v>14750734336</v>
+        <v>15100314624</v>
       </c>
       <c r="D427" s="3">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7894,13 +7894,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>112.6</v>
+        <v>112.98</v>
       </c>
       <c r="C428" s="2">
-        <v>17920854016</v>
+        <v>17981333504</v>
       </c>
       <c r="D428" s="3">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7908,13 +7908,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>35.26</v>
+        <v>34.67</v>
       </c>
       <c r="C429" s="2">
-        <v>15111412736</v>
+        <v>14495525888</v>
       </c>
       <c r="D429" s="3">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7922,13 +7922,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>300.83</v>
+        <v>295.59</v>
       </c>
       <c r="C430" s="2">
-        <v>114197471232</v>
+        <v>112208330752</v>
       </c>
       <c r="D430" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7936,13 +7936,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>73.27</v>
+        <v>75.2</v>
       </c>
       <c r="C431" s="2">
-        <v>37192142848</v>
+        <v>38171820032</v>
       </c>
       <c r="D431" s="3">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7950,13 +7950,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>13.9123</v>
+        <v>14.76</v>
       </c>
       <c r="C432" s="2">
-        <v>99459039232</v>
+        <v>105519243264</v>
       </c>
       <c r="D432" s="3">
-        <v>1429</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7964,13 +7964,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>67.105</v>
+        <v>69.95</v>
       </c>
       <c r="C433" s="2">
-        <v>14508369920</v>
+        <v>15118572544</v>
       </c>
       <c r="D433" s="3">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7978,10 +7978,10 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>891.04</v>
+        <v>887.9299999999999</v>
       </c>
       <c r="C434" s="2">
-        <v>48943312896</v>
+        <v>48772485120</v>
       </c>
       <c r="D434" s="3">
         <v>22</v>
@@ -7992,10 +7992,10 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>411.59</v>
+        <v>412.45</v>
       </c>
       <c r="C435" s="2">
-        <v>19363497984</v>
+        <v>19403958272</v>
       </c>
       <c r="D435" s="3">
         <v>48</v>
@@ -8006,13 +8006,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>82.5</v>
+        <v>89.42</v>
       </c>
       <c r="C436" s="2">
-        <v>12988552192</v>
+        <v>14078015488</v>
       </c>
       <c r="D436" s="3">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8020,10 +8020,10 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>141.525</v>
+        <v>141</v>
       </c>
       <c r="C437" s="2">
-        <v>44596649984</v>
+        <v>44431216640</v>
       </c>
       <c r="D437" s="3">
         <v>140</v>
@@ -8034,13 +8034,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>114.55</v>
+        <v>115.05</v>
       </c>
       <c r="C438" s="2">
-        <v>17759719424</v>
+        <v>17837238272</v>
       </c>
       <c r="D438" s="3">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8048,13 +8048,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>33.225</v>
+        <v>33.05</v>
       </c>
       <c r="C439" s="2">
-        <v>44253040640</v>
+        <v>44021940224</v>
       </c>
       <c r="D439" s="3">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8062,13 +8062,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>245.115</v>
+        <v>258.77</v>
       </c>
       <c r="C440" s="2">
-        <v>11513468928</v>
+        <v>12154866688</v>
       </c>
       <c r="D440" s="3">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8076,13 +8076,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>129.605</v>
+        <v>134.08</v>
       </c>
       <c r="C441" s="2">
-        <v>59820482560</v>
+        <v>61885964288</v>
       </c>
       <c r="D441" s="3">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8090,13 +8090,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>85.25</v>
+        <v>85.58</v>
       </c>
       <c r="C442" s="2">
-        <v>97972715520</v>
+        <v>98351964160</v>
       </c>
       <c r="D442" s="3">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8104,13 +8104,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>522.725</v>
+        <v>562.1900000000001</v>
       </c>
       <c r="C443" s="2">
-        <v>201625993216</v>
+        <v>216848482304</v>
       </c>
       <c r="D443" s="3">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8118,13 +8118,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>139.32</v>
+        <v>140.9</v>
       </c>
       <c r="C444" s="2">
-        <v>167168688128</v>
+        <v>169064497152</v>
       </c>
       <c r="D444" s="3">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8132,13 +8132,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>42.63</v>
+        <v>41.55</v>
       </c>
       <c r="C445" s="2">
-        <v>9881548800</v>
+        <v>9723157504</v>
       </c>
       <c r="D445" s="3">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8146,13 +8146,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>78.31999999999999</v>
+        <v>80.66</v>
       </c>
       <c r="C446" s="2">
-        <v>17701808128</v>
+        <v>18230693888</v>
       </c>
       <c r="D446" s="3">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8160,13 +8160,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>53.6768</v>
+        <v>52.75</v>
       </c>
       <c r="C447" s="2">
-        <v>13298266112</v>
+        <v>13068654592</v>
       </c>
       <c r="D447" s="3">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8174,13 +8174,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>116.855</v>
+        <v>119.7</v>
       </c>
       <c r="C448" s="2">
-        <v>26242361344</v>
+        <v>27109296128</v>
       </c>
       <c r="D448" s="3">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8188,13 +8188,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>167.75</v>
+        <v>172.82</v>
       </c>
       <c r="C449" s="2">
-        <v>38746390528</v>
+        <v>39917445120</v>
       </c>
       <c r="D449" s="3">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8202,13 +8202,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>211.49</v>
+        <v>215.69</v>
       </c>
       <c r="C450" s="2">
-        <v>23172536320</v>
+        <v>23632721920</v>
       </c>
       <c r="D450" s="3">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8216,13 +8216,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>290.7981</v>
+        <v>260.02</v>
       </c>
       <c r="C451" s="2">
-        <v>921684541440</v>
+        <v>824133353472</v>
       </c>
       <c r="D451" s="3">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8230,13 +8230,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>52.0074</v>
+        <v>52.66</v>
       </c>
       <c r="C452" s="2">
-        <v>18494404608</v>
+        <v>18644430848</v>
       </c>
       <c r="D452" s="3">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8244,13 +8244,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>198.18</v>
+        <v>193.89</v>
       </c>
       <c r="C453" s="2">
-        <v>45195341824</v>
+        <v>44217004032</v>
       </c>
       <c r="D453" s="3">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8258,13 +8258,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>152.35</v>
+        <v>149.96</v>
       </c>
       <c r="C454" s="2">
-        <v>25798035456</v>
+        <v>25455261696</v>
       </c>
       <c r="D454" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8272,13 +8272,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>180.74</v>
+        <v>184.32</v>
       </c>
       <c r="C455" s="2">
-        <v>164049387520</v>
+        <v>170785767424</v>
       </c>
       <c r="D455" s="3">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8286,13 +8286,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>67.465</v>
+        <v>67.63</v>
       </c>
       <c r="C456" s="2">
-        <v>13606340608</v>
+        <v>13639617536</v>
       </c>
       <c r="D456" s="3">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8300,13 +8300,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>416.3958</v>
+        <v>403.33</v>
       </c>
       <c r="C457" s="2">
-        <v>17457518592</v>
+        <v>16909730816</v>
       </c>
       <c r="D457" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8314,13 +8314,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>53.9001</v>
+        <v>57.61</v>
       </c>
       <c r="C458" s="2">
-        <v>17677561856</v>
+        <v>18894292992</v>
       </c>
       <c r="D458" s="3">
-        <v>368</v>
+        <v>345</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8328,13 +8328,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>43.34</v>
+        <v>43.27</v>
       </c>
       <c r="C459" s="2">
-        <v>23825039360</v>
+        <v>23786559488</v>
       </c>
       <c r="D459" s="3">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8342,13 +8342,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>152.26</v>
+        <v>148.51</v>
       </c>
       <c r="C460" s="2">
-        <v>10685636608</v>
+        <v>10489231360</v>
       </c>
       <c r="D460" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8356,13 +8356,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>472.445</v>
+        <v>460.11</v>
       </c>
       <c r="C461" s="2">
-        <v>23528517632</v>
+        <v>22914213888</v>
       </c>
       <c r="D461" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8370,13 +8370,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>479.605</v>
+        <v>506.53</v>
       </c>
       <c r="C462" s="2">
-        <v>446527602688</v>
+        <v>471595646976</v>
       </c>
       <c r="D462" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8384,13 +8384,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>210.23</v>
+        <v>216.78</v>
       </c>
       <c r="C463" s="2">
-        <v>128176168960</v>
+        <v>132169678848</v>
       </c>
       <c r="D463" s="3">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8398,13 +8398,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>183.6</v>
+        <v>187.3</v>
       </c>
       <c r="C464" s="2">
-        <v>157691478016</v>
+        <v>160869351424</v>
       </c>
       <c r="D464" s="3">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8412,10 +8412,10 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>448.34</v>
+        <v>450.43</v>
       </c>
       <c r="C465" s="2">
-        <v>30814945280</v>
+        <v>31076696064</v>
       </c>
       <c r="D465" s="3">
         <v>44</v>
@@ -8426,13 +8426,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>35.3115</v>
+        <v>38.42</v>
       </c>
       <c r="C466" s="2">
-        <v>54129709056</v>
+        <v>58894786560</v>
       </c>
       <c r="D466" s="3">
-        <v>563</v>
+        <v>517</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8440,13 +8440,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>244.5505</v>
+        <v>239.25</v>
       </c>
       <c r="C467" s="2">
-        <v>512186580992</v>
+        <v>501085208576</v>
       </c>
       <c r="D467" s="3">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8454,13 +8454,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>18.91</v>
+        <v>19.39</v>
       </c>
       <c r="C468" s="2">
-        <v>7350638080</v>
+        <v>7537222144</v>
       </c>
       <c r="D468" s="3">
-        <v>1051</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8468,13 +8468,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>31.61</v>
+        <v>32.79</v>
       </c>
       <c r="C469" s="2">
-        <v>31744026624</v>
+        <v>32929030144</v>
       </c>
       <c r="D469" s="3">
-        <v>628</v>
+        <v>606</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8482,13 +8482,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>114.19</v>
+        <v>122.99</v>
       </c>
       <c r="C470" s="2">
-        <v>41281626112</v>
+        <v>44462972928</v>
       </c>
       <c r="D470" s="3">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8496,13 +8496,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>224.76</v>
+        <v>222.3</v>
       </c>
       <c r="C471" s="2">
-        <v>29906339840</v>
+        <v>29579016192</v>
       </c>
       <c r="D471" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8510,13 +8510,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>229.8</v>
+        <v>234.11</v>
       </c>
       <c r="C472" s="2">
-        <v>33272973312</v>
+        <v>33897023488</v>
       </c>
       <c r="D472" s="3">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8524,13 +8524,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>216.82</v>
+        <v>213.89</v>
       </c>
       <c r="C473" s="2">
-        <v>22570094592</v>
+        <v>22412249088</v>
       </c>
       <c r="D473" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8538,13 +8538,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>354.47</v>
+        <v>362.46</v>
       </c>
       <c r="C474" s="2">
-        <v>91294457856</v>
+        <v>93352296448</v>
       </c>
       <c r="D474" s="3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8552,13 +8552,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>48.175</v>
+        <v>49.53</v>
       </c>
       <c r="C475" s="2">
-        <v>19272505344</v>
+        <v>19814574080</v>
       </c>
       <c r="D475" s="3">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8566,13 +8566,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>9.975</v>
+        <v>10.48</v>
       </c>
       <c r="C476" s="2">
-        <v>11960325120</v>
+        <v>12565833728</v>
       </c>
       <c r="D476" s="3">
-        <v>1993</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8580,13 +8580,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>33.501</v>
+        <v>33.88</v>
       </c>
       <c r="C477" s="2">
-        <v>140837863424</v>
+        <v>142431191040</v>
       </c>
       <c r="D477" s="3">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8594,10 +8594,10 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>112.39</v>
+        <v>112.89</v>
       </c>
       <c r="C478" s="2">
-        <v>20215588864</v>
+        <v>20305524736</v>
       </c>
       <c r="D478" s="3">
         <v>176</v>
@@ -8608,13 +8608,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>268.34</v>
+        <v>288.72</v>
       </c>
       <c r="C479" s="2">
-        <v>15841076224</v>
+        <v>17063063552</v>
       </c>
       <c r="D479" s="3">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8622,13 +8622,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>29.155</v>
+        <v>30.46</v>
       </c>
       <c r="C480" s="2">
-        <v>25168375808</v>
+        <v>26294929408</v>
       </c>
       <c r="D480" s="3">
-        <v>681</v>
+        <v>652</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8636,13 +8636,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>12.29</v>
+        <v>12.93</v>
       </c>
       <c r="C481" s="2">
-        <v>29939791872</v>
+        <v>31498903552</v>
       </c>
       <c r="D481" s="3">
-        <v>1617</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8650,13 +8650,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>39.18</v>
+        <v>38.3</v>
       </c>
       <c r="C482" s="2">
-        <v>12535131136</v>
+        <v>12253586432</v>
       </c>
       <c r="D482" s="3">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8664,13 +8664,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>90.595</v>
+        <v>92.37</v>
       </c>
       <c r="C483" s="2">
-        <v>28576835584</v>
+        <v>29136732160</v>
       </c>
       <c r="D483" s="3">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8678,13 +8678,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>79.98999999999999</v>
+        <v>82.31</v>
       </c>
       <c r="C484" s="2">
-        <v>39757508608</v>
+        <v>40910622720</v>
       </c>
       <c r="D484" s="3">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8692,13 +8692,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>44.23</v>
+        <v>45.96</v>
       </c>
       <c r="C485" s="2">
-        <v>165960679424</v>
+        <v>168566112256</v>
       </c>
       <c r="D485" s="3">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8706,13 +8706,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>153.26</v>
+        <v>149.73</v>
       </c>
       <c r="C486" s="2">
-        <v>8392195584</v>
+        <v>8198900224</v>
       </c>
       <c r="D486" s="3">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8720,13 +8720,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>168.61</v>
+        <v>172.41</v>
       </c>
       <c r="C487" s="2">
-        <v>68593414144</v>
+        <v>70139322368</v>
       </c>
       <c r="D487" s="3">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8734,13 +8734,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>33.305</v>
+        <v>33.85</v>
       </c>
       <c r="C488" s="2">
-        <v>40571817984</v>
+        <v>41235726336</v>
       </c>
       <c r="D488" s="3">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8748,13 +8748,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>153.98</v>
+        <v>158.37</v>
       </c>
       <c r="C489" s="2">
-        <v>414643486720</v>
+        <v>426465034240</v>
       </c>
       <c r="D489" s="3">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8762,13 +8762,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>59.83</v>
+        <v>61.57</v>
       </c>
       <c r="C490" s="2">
-        <v>15602168832</v>
+        <v>16055917568</v>
       </c>
       <c r="D490" s="3">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8776,13 +8776,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>29.63</v>
+        <v>30.36</v>
       </c>
       <c r="C491" s="2">
-        <v>7589131776</v>
+        <v>7776107008</v>
       </c>
       <c r="D491" s="3">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8790,13 +8790,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>382.46</v>
+        <v>377.32</v>
       </c>
       <c r="C492" s="2">
-        <v>28394823680</v>
+        <v>28013217792</v>
       </c>
       <c r="D492" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8804,10 +8804,10 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>231.48</v>
+        <v>233.59</v>
       </c>
       <c r="C493" s="2">
-        <v>24632481792</v>
+        <v>24857012224</v>
       </c>
       <c r="D493" s="3">
         <v>85</v>
@@ -8818,13 +8818,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>33.925</v>
+        <v>34.38</v>
       </c>
       <c r="C494" s="2">
-        <v>24843141120</v>
+        <v>25176336384</v>
       </c>
       <c r="D494" s="3">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8832,13 +8832,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>107.51</v>
+        <v>107.18</v>
       </c>
       <c r="C495" s="2">
-        <v>12234423296</v>
+        <v>12196870144</v>
       </c>
       <c r="D495" s="3">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8846,13 +8846,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>63.85</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="C496" s="2">
-        <v>35140227072</v>
+        <v>35888713728</v>
       </c>
       <c r="D496" s="3">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8860,13 +8860,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>101.02</v>
+        <v>103.89</v>
       </c>
       <c r="C497" s="2">
-        <v>408421826560</v>
+        <v>420025204736</v>
       </c>
       <c r="D497" s="3">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8874,13 +8874,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>40.54</v>
+        <v>40.76</v>
       </c>
       <c r="C498" s="2">
-        <v>8613858304</v>
+        <v>8660602880</v>
       </c>
       <c r="D498" s="3">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8888,13 +8888,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>110.11</v>
+        <v>113.77</v>
       </c>
       <c r="C499" s="2">
-        <v>26359894016</v>
+        <v>27236081664</v>
       </c>
       <c r="D499" s="3">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8902,13 +8902,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>135.805</v>
+        <v>137.54</v>
       </c>
       <c r="C500" s="2">
-        <v>38037213184</v>
+        <v>38523166720</v>
       </c>
       <c r="D500" s="3">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8916,13 +8916,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>141.6</v>
+        <v>142.23</v>
       </c>
       <c r="C501" s="2">
-        <v>29564381184</v>
+        <v>29695916032</v>
       </c>
       <c r="D501" s="3">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8930,10 +8930,10 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>308</v>
+        <v>306.46</v>
       </c>
       <c r="C502" s="2">
-        <v>15840532480</v>
+        <v>15761329152</v>
       </c>
       <c r="D502" s="3">
         <v>64</v>
@@ -8944,13 +8944,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>30.97</v>
+        <v>36.11</v>
       </c>
       <c r="C503" s="2">
-        <v>4586687488</v>
+        <v>5349479936</v>
       </c>
       <c r="D503" s="3">
-        <v>641</v>
+        <v>550</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8958,13 +8958,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>171.42</v>
+        <v>183.51</v>
       </c>
       <c r="C504" s="2">
-        <v>79215239168</v>
+        <v>84802166784</v>
       </c>
       <c r="D504" s="3">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
